--- a/AtCoder_record.xlsx
+++ b/AtCoder_record.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simon\codes\AtCoder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54081F6E-B51B-49FA-B22B-A85C95C3C84C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9B05C71-3D67-403E-8D37-5CFDF458ED89}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="44865" yWindow="-1980" windowWidth="12150" windowHeight="15885" xr2:uid="{9B9A1409-A6B9-4D33-8F83-A064BA4B158C}"/>
+    <workbookView xWindow="42450" yWindow="-1980" windowWidth="12150" windowHeight="15885" xr2:uid="{9B9A1409-A6B9-4D33-8F83-A064BA4B158C}"/>
   </bookViews>
   <sheets>
     <sheet name="ABC" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ABC!$A$1:$F$28</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -30,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="15">
   <si>
     <t>contest</t>
     <phoneticPr fontId="1"/>
@@ -68,6 +71,35 @@
   </si>
   <si>
     <t>YESとYes</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>date</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>accumulateでvectorのsumを求める、numericをインクルードする</t>
+    <rPh sb="22" eb="23">
+      <t>モト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2倍は x &lt;&lt;= 1</t>
+    <rPh sb="1" eb="2">
+      <t>バイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>accumulate</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>オーバーフローしないようにint64_tを使う</t>
+    <rPh sb="21" eb="22">
+      <t>ツカ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -122,11 +154,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -443,15 +478,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40C233B7-3D4E-4872-A3EB-9A4A81938CC3}">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="4" max="4" width="10.25" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -462,13 +500,16 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>41</v>
       </c>
@@ -478,8 +519,11 @@
       <c r="C2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="D2" s="2">
+        <v>43697</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>46</v>
       </c>
@@ -489,8 +533,11 @@
       <c r="C3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="D3" s="2">
+        <v>43697</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>46</v>
       </c>
@@ -500,8 +547,11 @@
       <c r="C4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="D4" s="2">
+        <v>43697</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>42</v>
       </c>
@@ -511,8 +561,11 @@
       <c r="C5" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="D5" s="2">
+        <v>43697</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>42</v>
       </c>
@@ -522,8 +575,11 @@
       <c r="C6" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="D6" s="2">
+        <v>43697</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>58</v>
       </c>
@@ -533,8 +589,11 @@
       <c r="C7" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="D7" s="2">
+        <v>43697</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>58</v>
       </c>
@@ -544,8 +603,11 @@
       <c r="C8" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="D8" s="2">
+        <v>43697</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>69</v>
       </c>
@@ -555,8 +617,11 @@
       <c r="C9" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="D9" s="2">
+        <v>43697</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>69</v>
       </c>
@@ -566,8 +631,11 @@
       <c r="C10" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="D10" s="2">
+        <v>43697</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>85</v>
       </c>
@@ -577,8 +645,11 @@
       <c r="C11" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="D11" s="2">
+        <v>43697</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>85</v>
       </c>
@@ -588,8 +659,11 @@
       <c r="C12" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="D12" s="2">
+        <v>43697</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>91</v>
       </c>
@@ -599,11 +673,14 @@
       <c r="C13" t="s">
         <v>8</v>
       </c>
-      <c r="E13" t="s">
+      <c r="D13" s="2">
+        <v>43697</v>
+      </c>
+      <c r="F13" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>91</v>
       </c>
@@ -613,8 +690,248 @@
       <c r="C14" t="s">
         <v>8</v>
       </c>
+      <c r="D14" s="2">
+        <v>43697</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A15">
+        <v>33</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="2">
+        <v>43698</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A16">
+        <v>33</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" s="2">
+        <v>43698</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A17">
+        <v>35</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" s="2">
+        <v>43698</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A18">
+        <v>35</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" s="2">
+        <v>43698</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A19">
+        <v>94</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" s="2">
+        <v>43698</v>
+      </c>
+      <c r="E19" t="s">
+        <v>13</v>
+      </c>
+      <c r="F19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A20">
+        <v>94</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20" s="2">
+        <v>43698</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A21">
+        <v>68</v>
+      </c>
+      <c r="B21" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" t="s">
+        <v>8</v>
+      </c>
+      <c r="D21" s="2">
+        <v>43698</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A22">
+        <v>68</v>
+      </c>
+      <c r="B22" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22" s="2">
+        <v>43698</v>
+      </c>
+      <c r="F22" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A23">
+        <v>97</v>
+      </c>
+      <c r="B23" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23" t="s">
+        <v>8</v>
+      </c>
+      <c r="D23" s="2">
+        <v>43698</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A24">
+        <v>97</v>
+      </c>
+      <c r="B24" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24" t="s">
+        <v>8</v>
+      </c>
+      <c r="D24" s="2">
+        <v>43698</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A25">
+        <v>39</v>
+      </c>
+      <c r="B25" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25" t="s">
+        <v>8</v>
+      </c>
+      <c r="D25" s="2">
+        <v>43698</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A26">
+        <v>39</v>
+      </c>
+      <c r="B26" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26" t="s">
+        <v>8</v>
+      </c>
+      <c r="D26" s="2">
+        <v>43698</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A27">
+        <v>77</v>
+      </c>
+      <c r="B27" t="s">
+        <v>6</v>
+      </c>
+      <c r="C27" t="s">
+        <v>8</v>
+      </c>
+      <c r="D27" s="2">
+        <v>43698</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A28">
+        <v>77</v>
+      </c>
+      <c r="B28" t="s">
+        <v>5</v>
+      </c>
+      <c r="C28" t="s">
+        <v>8</v>
+      </c>
+      <c r="D28" s="2">
+        <v>43698</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A29">
+        <v>55</v>
+      </c>
+      <c r="B29" t="s">
+        <v>6</v>
+      </c>
+      <c r="C29" t="s">
+        <v>8</v>
+      </c>
+      <c r="D29" s="2">
+        <v>43698</v>
+      </c>
+      <c r="F29" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A30">
+        <v>55</v>
+      </c>
+      <c r="B30" t="s">
+        <v>5</v>
+      </c>
+      <c r="C30" t="s">
+        <v>8</v>
+      </c>
+      <c r="D30" s="2">
+        <v>43698</v>
+      </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:F28" xr:uid="{B044DDE4-FD9B-4332-A4FA-1E362B47FB20}"/>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C1048576" xr:uid="{73954FCB-6CAE-4348-A109-7122C619CB33}">

--- a/AtCoder_record.xlsx
+++ b/AtCoder_record.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simon\codes\AtCoder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9B05C71-3D67-403E-8D37-5CFDF458ED89}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23DD8FF4-DDAC-4E7A-A318-0C0D129C6A42}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="42450" yWindow="-1980" windowWidth="12150" windowHeight="15885" xr2:uid="{9B9A1409-A6B9-4D33-8F83-A064BA4B158C}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="17">
   <si>
     <t>contest</t>
     <phoneticPr fontId="1"/>
@@ -100,6 +100,14 @@
     <rPh sb="21" eb="22">
       <t>ツカ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>dp</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -478,10 +486,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40C233B7-3D4E-4872-A3EB-9A4A81938CC3}">
-  <dimension ref="A1:F30"/>
+  <dimension ref="A1:F42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -928,6 +936,177 @@
       </c>
       <c r="D30" s="2">
         <v>43698</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A31">
+        <v>99</v>
+      </c>
+      <c r="B31" t="s">
+        <v>15</v>
+      </c>
+      <c r="C31" t="s">
+        <v>8</v>
+      </c>
+      <c r="D31" s="2">
+        <v>43701</v>
+      </c>
+      <c r="E31" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A32">
+        <v>99</v>
+      </c>
+      <c r="B32" t="s">
+        <v>6</v>
+      </c>
+      <c r="C32" t="s">
+        <v>8</v>
+      </c>
+      <c r="D32" s="2">
+        <v>43701</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A33">
+        <v>99</v>
+      </c>
+      <c r="B33" t="s">
+        <v>5</v>
+      </c>
+      <c r="C33" t="s">
+        <v>8</v>
+      </c>
+      <c r="D33" s="2">
+        <v>43701</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A34">
+        <v>34</v>
+      </c>
+      <c r="B34" t="s">
+        <v>6</v>
+      </c>
+      <c r="C34" t="s">
+        <v>8</v>
+      </c>
+      <c r="D34" s="2">
+        <v>43701</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>5</v>
+      </c>
+      <c r="C35" t="s">
+        <v>8</v>
+      </c>
+      <c r="D35" s="2">
+        <v>43701</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A36">
+        <v>60</v>
+      </c>
+      <c r="B36" t="s">
+        <v>6</v>
+      </c>
+      <c r="C36" t="s">
+        <v>8</v>
+      </c>
+      <c r="D36" s="2">
+        <v>43701</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A37">
+        <v>60</v>
+      </c>
+      <c r="B37" t="s">
+        <v>5</v>
+      </c>
+      <c r="C37" t="s">
+        <v>8</v>
+      </c>
+      <c r="D37" s="2">
+        <v>43701</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A38">
+        <v>6</v>
+      </c>
+      <c r="B38" t="s">
+        <v>6</v>
+      </c>
+      <c r="C38" t="s">
+        <v>8</v>
+      </c>
+      <c r="D38" s="2">
+        <v>43701</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A39">
+        <v>6</v>
+      </c>
+      <c r="B39" t="s">
+        <v>5</v>
+      </c>
+      <c r="C39" t="s">
+        <v>8</v>
+      </c>
+      <c r="D39" s="2">
+        <v>43701</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A40">
+        <v>79</v>
+      </c>
+      <c r="B40" t="s">
+        <v>6</v>
+      </c>
+      <c r="C40" t="s">
+        <v>8</v>
+      </c>
+      <c r="D40" s="2">
+        <v>43701</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A41">
+        <v>79</v>
+      </c>
+      <c r="B41" t="s">
+        <v>5</v>
+      </c>
+      <c r="C41" t="s">
+        <v>8</v>
+      </c>
+      <c r="D41" s="2">
+        <v>43701</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A42">
+        <v>39</v>
+      </c>
+      <c r="B42" t="s">
+        <v>15</v>
+      </c>
+      <c r="C42" t="s">
+        <v>8</v>
+      </c>
+      <c r="D42" s="2">
+        <v>43701</v>
       </c>
     </row>
   </sheetData>

--- a/AtCoder_record.xlsx
+++ b/AtCoder_record.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simon\codes\AtCoder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23DD8FF4-DDAC-4E7A-A318-0C0D129C6A42}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4AD4A21-796D-446D-8966-6D53571D8700}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="42450" yWindow="-1980" windowWidth="12150" windowHeight="15885" xr2:uid="{9B9A1409-A6B9-4D33-8F83-A064BA4B158C}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="18">
   <si>
     <t>contest</t>
     <phoneticPr fontId="1"/>
@@ -108,6 +108,25 @@
   </si>
   <si>
     <t>dp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>配列の初期化は全部に代入する必要がある</t>
+    <rPh sb="0" eb="2">
+      <t>ハイレツ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>ショキカ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ゼンブ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ダイニュウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ヒツヨウ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -486,10 +505,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40C233B7-3D4E-4872-A3EB-9A4A81938CC3}">
-  <dimension ref="A1:F42"/>
+  <dimension ref="A1:F60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="D43" sqref="D43"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="B59" sqref="B59:D60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -969,7 +988,7 @@
         <v>43701</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A33">
         <v>99</v>
       </c>
@@ -983,7 +1002,7 @@
         <v>43701</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A34">
         <v>34</v>
       </c>
@@ -997,7 +1016,7 @@
         <v>43701</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A35">
         <v>34</v>
       </c>
@@ -1011,7 +1030,7 @@
         <v>43701</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A36">
         <v>60</v>
       </c>
@@ -1025,7 +1044,7 @@
         <v>43701</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A37">
         <v>60</v>
       </c>
@@ -1039,7 +1058,7 @@
         <v>43701</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A38">
         <v>6</v>
       </c>
@@ -1053,7 +1072,7 @@
         <v>43701</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A39">
         <v>6</v>
       </c>
@@ -1067,7 +1086,7 @@
         <v>43701</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A40">
         <v>79</v>
       </c>
@@ -1081,7 +1100,7 @@
         <v>43701</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A41">
         <v>79</v>
       </c>
@@ -1095,7 +1114,7 @@
         <v>43701</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A42">
         <v>39</v>
       </c>
@@ -1106,6 +1125,261 @@
         <v>8</v>
       </c>
       <c r="D42" s="2">
+        <v>43701</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A43">
+        <v>71</v>
+      </c>
+      <c r="B43" t="s">
+        <v>6</v>
+      </c>
+      <c r="C43" t="s">
+        <v>8</v>
+      </c>
+      <c r="D43" s="2">
+        <v>43701</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A44">
+        <v>71</v>
+      </c>
+      <c r="B44" t="s">
+        <v>5</v>
+      </c>
+      <c r="C44" t="s">
+        <v>8</v>
+      </c>
+      <c r="D44" s="2">
+        <v>43701</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A45">
+        <v>90</v>
+      </c>
+      <c r="B45" t="s">
+        <v>6</v>
+      </c>
+      <c r="C45" t="s">
+        <v>8</v>
+      </c>
+      <c r="D45" s="2">
+        <v>43701</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A46">
+        <v>90</v>
+      </c>
+      <c r="B46" t="s">
+        <v>5</v>
+      </c>
+      <c r="C46" t="s">
+        <v>8</v>
+      </c>
+      <c r="D46" s="2">
+        <v>43701</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A47">
+        <v>18</v>
+      </c>
+      <c r="B47" t="s">
+        <v>6</v>
+      </c>
+      <c r="C47" t="s">
+        <v>8</v>
+      </c>
+      <c r="D47" s="2">
+        <v>43701</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A48">
+        <v>18</v>
+      </c>
+      <c r="B48" t="s">
+        <v>5</v>
+      </c>
+      <c r="C48" t="s">
+        <v>8</v>
+      </c>
+      <c r="D48" s="2">
+        <v>43701</v>
+      </c>
+      <c r="F48" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A49">
+        <v>43</v>
+      </c>
+      <c r="B49" t="s">
+        <v>5</v>
+      </c>
+      <c r="C49" t="s">
+        <v>8</v>
+      </c>
+      <c r="D49" s="2">
+        <v>43701</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A50">
+        <v>43</v>
+      </c>
+      <c r="B50" t="s">
+        <v>6</v>
+      </c>
+      <c r="C50" t="s">
+        <v>8</v>
+      </c>
+      <c r="D50" s="2">
+        <v>43701</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A51">
+        <v>66</v>
+      </c>
+      <c r="B51" t="s">
+        <v>5</v>
+      </c>
+      <c r="C51" t="s">
+        <v>8</v>
+      </c>
+      <c r="D51" s="2">
+        <v>43701</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A52">
+        <v>66</v>
+      </c>
+      <c r="B52" t="s">
+        <v>6</v>
+      </c>
+      <c r="C52" t="s">
+        <v>8</v>
+      </c>
+      <c r="D52" s="2">
+        <v>43701</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A53">
+        <v>11</v>
+      </c>
+      <c r="B53" t="s">
+        <v>5</v>
+      </c>
+      <c r="C53" t="s">
+        <v>8</v>
+      </c>
+      <c r="D53" s="2">
+        <v>43701</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A54">
+        <v>11</v>
+      </c>
+      <c r="B54" t="s">
+        <v>6</v>
+      </c>
+      <c r="C54" t="s">
+        <v>8</v>
+      </c>
+      <c r="D54" s="2">
+        <v>43701</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A55">
+        <v>104</v>
+      </c>
+      <c r="B55" t="s">
+        <v>5</v>
+      </c>
+      <c r="C55" t="s">
+        <v>8</v>
+      </c>
+      <c r="D55" s="2">
+        <v>43701</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A56">
+        <v>104</v>
+      </c>
+      <c r="B56" t="s">
+        <v>6</v>
+      </c>
+      <c r="C56" t="s">
+        <v>8</v>
+      </c>
+      <c r="D56" s="2">
+        <v>43701</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A57">
+        <v>113</v>
+      </c>
+      <c r="B57" t="s">
+        <v>5</v>
+      </c>
+      <c r="C57" t="s">
+        <v>8</v>
+      </c>
+      <c r="D57" s="2">
+        <v>43701</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A58">
+        <v>113</v>
+      </c>
+      <c r="B58" t="s">
+        <v>6</v>
+      </c>
+      <c r="C58" t="s">
+        <v>8</v>
+      </c>
+      <c r="D58" s="2">
+        <v>43701</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A59">
+        <v>45</v>
+      </c>
+      <c r="B59" t="s">
+        <v>5</v>
+      </c>
+      <c r="C59" t="s">
+        <v>8</v>
+      </c>
+      <c r="D59" s="2">
+        <v>43701</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A60">
+        <v>45</v>
+      </c>
+      <c r="B60" t="s">
+        <v>6</v>
+      </c>
+      <c r="C60" t="s">
+        <v>8</v>
+      </c>
+      <c r="D60" s="2">
         <v>43701</v>
       </c>
     </row>

--- a/AtCoder_record.xlsx
+++ b/AtCoder_record.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simon\codes\AtCoder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4AD4A21-796D-446D-8966-6D53571D8700}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F559EABC-9DC0-4D59-B193-D532B858EC87}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="42450" yWindow="-1980" windowWidth="12150" windowHeight="15885" xr2:uid="{9B9A1409-A6B9-4D33-8F83-A064BA4B158C}"/>
+    <workbookView xWindow="11565" yWindow="3795" windowWidth="12150" windowHeight="15885" xr2:uid="{9B9A1409-A6B9-4D33-8F83-A064BA4B158C}"/>
   </bookViews>
   <sheets>
     <sheet name="ABC" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="19">
   <si>
     <t>contest</t>
     <phoneticPr fontId="1"/>
@@ -127,6 +127,10 @@
     <rPh sb="14" eb="16">
       <t>ヒツヨウ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>dfs</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -505,10 +509,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40C233B7-3D4E-4872-A3EB-9A4A81938CC3}">
-  <dimension ref="A1:F60"/>
+  <dimension ref="A1:F72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="B59" sqref="B59:D60"/>
+    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
+      <selection activeCell="B70" sqref="B70:D72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1381,6 +1385,177 @@
       </c>
       <c r="D60" s="2">
         <v>43701</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A61">
+        <v>98</v>
+      </c>
+      <c r="B61" t="s">
+        <v>6</v>
+      </c>
+      <c r="C61" t="s">
+        <v>8</v>
+      </c>
+      <c r="D61" s="2">
+        <v>43702</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A62">
+        <v>98</v>
+      </c>
+      <c r="B62" t="s">
+        <v>5</v>
+      </c>
+      <c r="C62" t="s">
+        <v>8</v>
+      </c>
+      <c r="D62" s="2">
+        <v>43702</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A63">
+        <v>81</v>
+      </c>
+      <c r="B63" t="s">
+        <v>6</v>
+      </c>
+      <c r="C63" t="s">
+        <v>8</v>
+      </c>
+      <c r="D63" s="2">
+        <v>43702</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A64">
+        <v>81</v>
+      </c>
+      <c r="B64" t="s">
+        <v>5</v>
+      </c>
+      <c r="C64" t="s">
+        <v>8</v>
+      </c>
+      <c r="D64" s="2">
+        <v>43702</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A65">
+        <v>51</v>
+      </c>
+      <c r="B65" t="s">
+        <v>6</v>
+      </c>
+      <c r="C65" t="s">
+        <v>8</v>
+      </c>
+      <c r="D65" s="2">
+        <v>43702</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A66">
+        <v>51</v>
+      </c>
+      <c r="B66" t="s">
+        <v>5</v>
+      </c>
+      <c r="C66" t="s">
+        <v>8</v>
+      </c>
+      <c r="D66" s="2">
+        <v>43702</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A67">
+        <v>54</v>
+      </c>
+      <c r="B67" t="s">
+        <v>15</v>
+      </c>
+      <c r="C67" t="s">
+        <v>8</v>
+      </c>
+      <c r="D67" s="2">
+        <v>43702</v>
+      </c>
+      <c r="E67" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A68">
+        <v>54</v>
+      </c>
+      <c r="B68" t="s">
+        <v>6</v>
+      </c>
+      <c r="C68" t="s">
+        <v>8</v>
+      </c>
+      <c r="D68" s="2">
+        <v>43702</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A69">
+        <v>54</v>
+      </c>
+      <c r="B69" t="s">
+        <v>5</v>
+      </c>
+      <c r="C69" t="s">
+        <v>8</v>
+      </c>
+      <c r="D69" s="2">
+        <v>43702</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A70">
+        <v>36</v>
+      </c>
+      <c r="B70" t="s">
+        <v>15</v>
+      </c>
+      <c r="C70" t="s">
+        <v>8</v>
+      </c>
+      <c r="D70" s="2">
+        <v>43702</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A71">
+        <v>36</v>
+      </c>
+      <c r="B71" t="s">
+        <v>6</v>
+      </c>
+      <c r="C71" t="s">
+        <v>8</v>
+      </c>
+      <c r="D71" s="2">
+        <v>43702</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A72">
+        <v>36</v>
+      </c>
+      <c r="B72" t="s">
+        <v>5</v>
+      </c>
+      <c r="C72" t="s">
+        <v>8</v>
+      </c>
+      <c r="D72" s="2">
+        <v>43702</v>
       </c>
     </row>
   </sheetData>

--- a/AtCoder_record.xlsx
+++ b/AtCoder_record.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simon\codes\AtCoder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F559EABC-9DC0-4D59-B193-D532B858EC87}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8381BE5C-D8BF-4EC2-A2CF-BB86B451985A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11565" yWindow="3795" windowWidth="12150" windowHeight="15885" xr2:uid="{9B9A1409-A6B9-4D33-8F83-A064BA4B158C}"/>
+    <workbookView xWindow="11565" yWindow="3795" windowWidth="15255" windowHeight="15885" xr2:uid="{9B9A1409-A6B9-4D33-8F83-A064BA4B158C}"/>
   </bookViews>
   <sheets>
     <sheet name="ABC" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ABC!$A$1:$F$28</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ABC!$A$1:$G$28</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="22">
   <si>
     <t>contest</t>
     <phoneticPr fontId="1"/>
@@ -131,6 +131,18 @@
   </si>
   <si>
     <t>dfs</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>D</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>digit dp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>failFirst</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -509,18 +521,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40C233B7-3D4E-4872-A3EB-9A4A81938CC3}">
-  <dimension ref="A1:F72"/>
+  <dimension ref="A1:G77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
-      <selection activeCell="B70" sqref="B70:D72"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C78" sqref="C78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="4" max="4" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -531,16 +544,19 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" t="s">
         <v>10</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>41</v>
       </c>
@@ -550,11 +566,11 @@
       <c r="C2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="2">
+      <c r="E2" s="2">
         <v>43697</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>46</v>
       </c>
@@ -564,11 +580,11 @@
       <c r="C3" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="2">
+      <c r="E3" s="2">
         <v>43697</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>46</v>
       </c>
@@ -578,11 +594,11 @@
       <c r="C4" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="2">
+      <c r="E4" s="2">
         <v>43697</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>42</v>
       </c>
@@ -592,11 +608,11 @@
       <c r="C5" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="2">
+      <c r="E5" s="2">
         <v>43697</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>42</v>
       </c>
@@ -606,11 +622,11 @@
       <c r="C6" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="2">
+      <c r="E6" s="2">
         <v>43697</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>58</v>
       </c>
@@ -620,11 +636,11 @@
       <c r="C7" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="2">
+      <c r="E7" s="2">
         <v>43697</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>58</v>
       </c>
@@ -634,11 +650,11 @@
       <c r="C8" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="2">
+      <c r="E8" s="2">
         <v>43697</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>69</v>
       </c>
@@ -648,11 +664,11 @@
       <c r="C9" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="2">
+      <c r="E9" s="2">
         <v>43697</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>69</v>
       </c>
@@ -662,11 +678,11 @@
       <c r="C10" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="2">
+      <c r="E10" s="2">
         <v>43697</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>85</v>
       </c>
@@ -676,11 +692,11 @@
       <c r="C11" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="2">
+      <c r="E11" s="2">
         <v>43697</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>85</v>
       </c>
@@ -690,11 +706,11 @@
       <c r="C12" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="2">
+      <c r="E12" s="2">
         <v>43697</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>91</v>
       </c>
@@ -704,14 +720,14 @@
       <c r="C13" t="s">
         <v>8</v>
       </c>
-      <c r="D13" s="2">
+      <c r="E13" s="2">
         <v>43697</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>91</v>
       </c>
@@ -721,11 +737,11 @@
       <c r="C14" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="2">
+      <c r="E14" s="2">
         <v>43697</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>33</v>
       </c>
@@ -735,11 +751,11 @@
       <c r="C15" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="2">
+      <c r="E15" s="2">
         <v>43698</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>33</v>
       </c>
@@ -749,11 +765,11 @@
       <c r="C16" t="s">
         <v>8</v>
       </c>
-      <c r="D16" s="2">
+      <c r="E16" s="2">
         <v>43698</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>35</v>
       </c>
@@ -763,11 +779,11 @@
       <c r="C17" t="s">
         <v>8</v>
       </c>
-      <c r="D17" s="2">
+      <c r="E17" s="2">
         <v>43698</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>35</v>
       </c>
@@ -777,11 +793,11 @@
       <c r="C18" t="s">
         <v>8</v>
       </c>
-      <c r="D18" s="2">
+      <c r="E18" s="2">
         <v>43698</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>94</v>
       </c>
@@ -791,17 +807,17 @@
       <c r="C19" t="s">
         <v>8</v>
       </c>
-      <c r="D19" s="2">
+      <c r="E19" s="2">
         <v>43698</v>
       </c>
-      <c r="E19" t="s">
+      <c r="F19" t="s">
         <v>13</v>
       </c>
-      <c r="F19" t="s">
+      <c r="G19" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>94</v>
       </c>
@@ -811,11 +827,11 @@
       <c r="C20" t="s">
         <v>8</v>
       </c>
-      <c r="D20" s="2">
+      <c r="E20" s="2">
         <v>43698</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A21">
         <v>68</v>
       </c>
@@ -825,11 +841,11 @@
       <c r="C21" t="s">
         <v>8</v>
       </c>
-      <c r="D21" s="2">
+      <c r="E21" s="2">
         <v>43698</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A22">
         <v>68</v>
       </c>
@@ -839,14 +855,14 @@
       <c r="C22" t="s">
         <v>8</v>
       </c>
-      <c r="D22" s="2">
+      <c r="E22" s="2">
         <v>43698</v>
       </c>
-      <c r="F22" t="s">
+      <c r="G22" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A23">
         <v>97</v>
       </c>
@@ -856,11 +872,11 @@
       <c r="C23" t="s">
         <v>8</v>
       </c>
-      <c r="D23" s="2">
+      <c r="E23" s="2">
         <v>43698</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A24">
         <v>97</v>
       </c>
@@ -870,11 +886,11 @@
       <c r="C24" t="s">
         <v>8</v>
       </c>
-      <c r="D24" s="2">
+      <c r="E24" s="2">
         <v>43698</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A25">
         <v>39</v>
       </c>
@@ -884,11 +900,11 @@
       <c r="C25" t="s">
         <v>8</v>
       </c>
-      <c r="D25" s="2">
+      <c r="E25" s="2">
         <v>43698</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A26">
         <v>39</v>
       </c>
@@ -898,11 +914,11 @@
       <c r="C26" t="s">
         <v>8</v>
       </c>
-      <c r="D26" s="2">
+      <c r="E26" s="2">
         <v>43698</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A27">
         <v>77</v>
       </c>
@@ -912,11 +928,11 @@
       <c r="C27" t="s">
         <v>8</v>
       </c>
-      <c r="D27" s="2">
+      <c r="E27" s="2">
         <v>43698</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A28">
         <v>77</v>
       </c>
@@ -926,11 +942,11 @@
       <c r="C28" t="s">
         <v>8</v>
       </c>
-      <c r="D28" s="2">
+      <c r="E28" s="2">
         <v>43698</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A29">
         <v>55</v>
       </c>
@@ -940,14 +956,14 @@
       <c r="C29" t="s">
         <v>8</v>
       </c>
-      <c r="D29" s="2">
+      <c r="E29" s="2">
         <v>43698</v>
       </c>
-      <c r="F29" t="s">
+      <c r="G29" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A30">
         <v>55</v>
       </c>
@@ -957,11 +973,11 @@
       <c r="C30" t="s">
         <v>8</v>
       </c>
-      <c r="D30" s="2">
+      <c r="E30" s="2">
         <v>43698</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A31">
         <v>99</v>
       </c>
@@ -971,14 +987,14 @@
       <c r="C31" t="s">
         <v>8</v>
       </c>
-      <c r="D31" s="2">
-        <v>43701</v>
-      </c>
-      <c r="E31" t="s">
+      <c r="E31" s="2">
+        <v>43701</v>
+      </c>
+      <c r="F31" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A32">
         <v>99</v>
       </c>
@@ -988,11 +1004,11 @@
       <c r="C32" t="s">
         <v>8</v>
       </c>
-      <c r="D32" s="2">
-        <v>43701</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="E32" s="2">
+        <v>43701</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A33">
         <v>99</v>
       </c>
@@ -1002,11 +1018,11 @@
       <c r="C33" t="s">
         <v>8</v>
       </c>
-      <c r="D33" s="2">
-        <v>43701</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="E33" s="2">
+        <v>43701</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A34">
         <v>34</v>
       </c>
@@ -1016,11 +1032,11 @@
       <c r="C34" t="s">
         <v>8</v>
       </c>
-      <c r="D34" s="2">
-        <v>43701</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="E34" s="2">
+        <v>43701</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A35">
         <v>34</v>
       </c>
@@ -1030,11 +1046,11 @@
       <c r="C35" t="s">
         <v>8</v>
       </c>
-      <c r="D35" s="2">
-        <v>43701</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="E35" s="2">
+        <v>43701</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A36">
         <v>60</v>
       </c>
@@ -1044,11 +1060,11 @@
       <c r="C36" t="s">
         <v>8</v>
       </c>
-      <c r="D36" s="2">
-        <v>43701</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="E36" s="2">
+        <v>43701</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A37">
         <v>60</v>
       </c>
@@ -1058,11 +1074,11 @@
       <c r="C37" t="s">
         <v>8</v>
       </c>
-      <c r="D37" s="2">
-        <v>43701</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="E37" s="2">
+        <v>43701</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A38">
         <v>6</v>
       </c>
@@ -1072,11 +1088,11 @@
       <c r="C38" t="s">
         <v>8</v>
       </c>
-      <c r="D38" s="2">
-        <v>43701</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="E38" s="2">
+        <v>43701</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A39">
         <v>6</v>
       </c>
@@ -1086,11 +1102,11 @@
       <c r="C39" t="s">
         <v>8</v>
       </c>
-      <c r="D39" s="2">
-        <v>43701</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="E39" s="2">
+        <v>43701</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A40">
         <v>79</v>
       </c>
@@ -1100,11 +1116,11 @@
       <c r="C40" t="s">
         <v>8</v>
       </c>
-      <c r="D40" s="2">
-        <v>43701</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="E40" s="2">
+        <v>43701</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A41">
         <v>79</v>
       </c>
@@ -1114,11 +1130,11 @@
       <c r="C41" t="s">
         <v>8</v>
       </c>
-      <c r="D41" s="2">
-        <v>43701</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="E41" s="2">
+        <v>43701</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A42">
         <v>39</v>
       </c>
@@ -1128,11 +1144,11 @@
       <c r="C42" t="s">
         <v>8</v>
       </c>
-      <c r="D42" s="2">
-        <v>43701</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="E42" s="2">
+        <v>43701</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A43">
         <v>71</v>
       </c>
@@ -1142,11 +1158,11 @@
       <c r="C43" t="s">
         <v>8</v>
       </c>
-      <c r="D43" s="2">
-        <v>43701</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="E43" s="2">
+        <v>43701</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A44">
         <v>71</v>
       </c>
@@ -1156,11 +1172,11 @@
       <c r="C44" t="s">
         <v>8</v>
       </c>
-      <c r="D44" s="2">
-        <v>43701</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="E44" s="2">
+        <v>43701</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A45">
         <v>90</v>
       </c>
@@ -1170,11 +1186,11 @@
       <c r="C45" t="s">
         <v>8</v>
       </c>
-      <c r="D45" s="2">
-        <v>43701</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="E45" s="2">
+        <v>43701</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A46">
         <v>90</v>
       </c>
@@ -1184,11 +1200,11 @@
       <c r="C46" t="s">
         <v>8</v>
       </c>
-      <c r="D46" s="2">
-        <v>43701</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="E46" s="2">
+        <v>43701</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A47">
         <v>18</v>
       </c>
@@ -1198,11 +1214,11 @@
       <c r="C47" t="s">
         <v>8</v>
       </c>
-      <c r="D47" s="2">
-        <v>43701</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="E47" s="2">
+        <v>43701</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A48">
         <v>18</v>
       </c>
@@ -1212,14 +1228,14 @@
       <c r="C48" t="s">
         <v>8</v>
       </c>
-      <c r="D48" s="2">
-        <v>43701</v>
-      </c>
-      <c r="F48" t="s">
+      <c r="E48" s="2">
+        <v>43701</v>
+      </c>
+      <c r="G48" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A49">
         <v>43</v>
       </c>
@@ -1229,11 +1245,11 @@
       <c r="C49" t="s">
         <v>8</v>
       </c>
-      <c r="D49" s="2">
-        <v>43701</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E49" s="2">
+        <v>43701</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A50">
         <v>43</v>
       </c>
@@ -1243,11 +1259,11 @@
       <c r="C50" t="s">
         <v>8</v>
       </c>
-      <c r="D50" s="2">
-        <v>43701</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E50" s="2">
+        <v>43701</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A51">
         <v>66</v>
       </c>
@@ -1257,11 +1273,11 @@
       <c r="C51" t="s">
         <v>8</v>
       </c>
-      <c r="D51" s="2">
-        <v>43701</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E51" s="2">
+        <v>43701</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A52">
         <v>66</v>
       </c>
@@ -1271,11 +1287,11 @@
       <c r="C52" t="s">
         <v>8</v>
       </c>
-      <c r="D52" s="2">
-        <v>43701</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E52" s="2">
+        <v>43701</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A53">
         <v>11</v>
       </c>
@@ -1285,11 +1301,11 @@
       <c r="C53" t="s">
         <v>8</v>
       </c>
-      <c r="D53" s="2">
-        <v>43701</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E53" s="2">
+        <v>43701</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A54">
         <v>11</v>
       </c>
@@ -1299,11 +1315,11 @@
       <c r="C54" t="s">
         <v>8</v>
       </c>
-      <c r="D54" s="2">
-        <v>43701</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E54" s="2">
+        <v>43701</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A55">
         <v>104</v>
       </c>
@@ -1313,11 +1329,11 @@
       <c r="C55" t="s">
         <v>8</v>
       </c>
-      <c r="D55" s="2">
-        <v>43701</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E55" s="2">
+        <v>43701</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A56">
         <v>104</v>
       </c>
@@ -1327,11 +1343,11 @@
       <c r="C56" t="s">
         <v>8</v>
       </c>
-      <c r="D56" s="2">
-        <v>43701</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E56" s="2">
+        <v>43701</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A57">
         <v>113</v>
       </c>
@@ -1341,11 +1357,11 @@
       <c r="C57" t="s">
         <v>8</v>
       </c>
-      <c r="D57" s="2">
-        <v>43701</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E57" s="2">
+        <v>43701</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A58">
         <v>113</v>
       </c>
@@ -1355,11 +1371,11 @@
       <c r="C58" t="s">
         <v>8</v>
       </c>
-      <c r="D58" s="2">
-        <v>43701</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E58" s="2">
+        <v>43701</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A59">
         <v>45</v>
       </c>
@@ -1369,11 +1385,11 @@
       <c r="C59" t="s">
         <v>8</v>
       </c>
-      <c r="D59" s="2">
-        <v>43701</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E59" s="2">
+        <v>43701</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A60">
         <v>45</v>
       </c>
@@ -1383,11 +1399,11 @@
       <c r="C60" t="s">
         <v>8</v>
       </c>
-      <c r="D60" s="2">
-        <v>43701</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E60" s="2">
+        <v>43701</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A61">
         <v>98</v>
       </c>
@@ -1397,11 +1413,11 @@
       <c r="C61" t="s">
         <v>8</v>
       </c>
-      <c r="D61" s="2">
+      <c r="E61" s="2">
         <v>43702</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A62">
         <v>98</v>
       </c>
@@ -1411,11 +1427,11 @@
       <c r="C62" t="s">
         <v>8</v>
       </c>
-      <c r="D62" s="2">
+      <c r="E62" s="2">
         <v>43702</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A63">
         <v>81</v>
       </c>
@@ -1425,11 +1441,11 @@
       <c r="C63" t="s">
         <v>8</v>
       </c>
-      <c r="D63" s="2">
+      <c r="E63" s="2">
         <v>43702</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A64">
         <v>81</v>
       </c>
@@ -1439,11 +1455,11 @@
       <c r="C64" t="s">
         <v>8</v>
       </c>
-      <c r="D64" s="2">
+      <c r="E64" s="2">
         <v>43702</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A65">
         <v>51</v>
       </c>
@@ -1453,11 +1469,11 @@
       <c r="C65" t="s">
         <v>8</v>
       </c>
-      <c r="D65" s="2">
+      <c r="E65" s="2">
         <v>43702</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A66">
         <v>51</v>
       </c>
@@ -1467,11 +1483,11 @@
       <c r="C66" t="s">
         <v>8</v>
       </c>
-      <c r="D66" s="2">
+      <c r="E66" s="2">
         <v>43702</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A67">
         <v>54</v>
       </c>
@@ -1481,14 +1497,14 @@
       <c r="C67" t="s">
         <v>8</v>
       </c>
-      <c r="D67" s="2">
+      <c r="E67" s="2">
         <v>43702</v>
       </c>
-      <c r="E67" t="s">
+      <c r="F67" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A68">
         <v>54</v>
       </c>
@@ -1498,11 +1514,11 @@
       <c r="C68" t="s">
         <v>8</v>
       </c>
-      <c r="D68" s="2">
+      <c r="E68" s="2">
         <v>43702</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A69">
         <v>54</v>
       </c>
@@ -1512,11 +1528,11 @@
       <c r="C69" t="s">
         <v>8</v>
       </c>
-      <c r="D69" s="2">
+      <c r="E69" s="2">
         <v>43702</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A70">
         <v>36</v>
       </c>
@@ -1526,11 +1542,11 @@
       <c r="C70" t="s">
         <v>8</v>
       </c>
-      <c r="D70" s="2">
+      <c r="E70" s="2">
         <v>43702</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A71">
         <v>36</v>
       </c>
@@ -1540,11 +1556,11 @@
       <c r="C71" t="s">
         <v>8</v>
       </c>
-      <c r="D71" s="2">
+      <c r="E71" s="2">
         <v>43702</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A72">
         <v>36</v>
       </c>
@@ -1554,12 +1570,94 @@
       <c r="C72" t="s">
         <v>8</v>
       </c>
-      <c r="D72" s="2">
+      <c r="E72" s="2">
         <v>43702</v>
       </c>
     </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A73">
+        <v>117</v>
+      </c>
+      <c r="B73" t="s">
+        <v>19</v>
+      </c>
+      <c r="C73" t="s">
+        <v>8</v>
+      </c>
+      <c r="D73" t="b">
+        <v>1</v>
+      </c>
+      <c r="E73" s="2">
+        <v>43704</v>
+      </c>
+      <c r="F73" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A74">
+        <v>117</v>
+      </c>
+      <c r="B74" t="s">
+        <v>15</v>
+      </c>
+      <c r="C74" t="s">
+        <v>8</v>
+      </c>
+      <c r="E74" s="2">
+        <v>43704</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A75">
+        <v>117</v>
+      </c>
+      <c r="B75" t="s">
+        <v>6</v>
+      </c>
+      <c r="C75" t="s">
+        <v>8</v>
+      </c>
+      <c r="E75" s="2">
+        <v>43704</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A76">
+        <v>117</v>
+      </c>
+      <c r="B76" t="s">
+        <v>5</v>
+      </c>
+      <c r="C76" t="s">
+        <v>8</v>
+      </c>
+      <c r="E76" s="2">
+        <v>43704</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A77">
+        <v>8</v>
+      </c>
+      <c r="B77" t="s">
+        <v>19</v>
+      </c>
+      <c r="C77" t="s">
+        <v>8</v>
+      </c>
+      <c r="D77" t="b">
+        <v>1</v>
+      </c>
+      <c r="E77" s="2">
+        <v>43704</v>
+      </c>
+      <c r="F77" t="s">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:F28" xr:uid="{B044DDE4-FD9B-4332-A4FA-1E362B47FB20}"/>
+  <autoFilter ref="A1:G28" xr:uid="{B044DDE4-FD9B-4332-A4FA-1E362B47FB20}"/>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C1048576" xr:uid="{73954FCB-6CAE-4348-A109-7122C619CB33}">

--- a/AtCoder_record.xlsx
+++ b/AtCoder_record.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simon\codes\AtCoder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8381BE5C-D8BF-4EC2-A2CF-BB86B451985A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8F49635-608D-4D66-9CA5-CB748AF04EBE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11565" yWindow="3795" windowWidth="15255" windowHeight="15885" xr2:uid="{9B9A1409-A6B9-4D33-8F83-A064BA4B158C}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="26">
   <si>
     <t>contest</t>
     <phoneticPr fontId="1"/>
@@ -143,6 +143,40 @@
   </si>
   <si>
     <t>failFirst</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>bfs</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ソートした方が速い</t>
+    <rPh sb="5" eb="6">
+      <t>ホウ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ハヤ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>関係ある部分だけ保存しよう</t>
+    <rPh sb="0" eb="2">
+      <t>カンケイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ブブン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ホゾン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>lower_bound はbinary search的</t>
+    <rPh sb="26" eb="27">
+      <t>テキ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -521,11 +555,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40C233B7-3D4E-4872-A3EB-9A4A81938CC3}">
-  <dimension ref="A1:G77"/>
+  <dimension ref="A1:G89"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C78" sqref="C78"/>
+      <pane ySplit="1" topLeftCell="A70" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G87" sqref="G87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1638,7 +1672,7 @@
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A77">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B77" t="s">
         <v>19</v>
@@ -1654,6 +1688,186 @@
       </c>
       <c r="F77" t="s">
         <v>20</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A78">
+        <v>7</v>
+      </c>
+      <c r="B78" t="s">
+        <v>15</v>
+      </c>
+      <c r="C78" t="s">
+        <v>8</v>
+      </c>
+      <c r="E78" s="2">
+        <v>43705</v>
+      </c>
+      <c r="F78" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A79">
+        <v>7</v>
+      </c>
+      <c r="B79" t="s">
+        <v>6</v>
+      </c>
+      <c r="C79" t="s">
+        <v>8</v>
+      </c>
+      <c r="E79" s="2">
+        <v>43705</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A80">
+        <v>7</v>
+      </c>
+      <c r="B80" t="s">
+        <v>5</v>
+      </c>
+      <c r="C80" t="s">
+        <v>8</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43705</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A81">
+        <v>68</v>
+      </c>
+      <c r="B81" t="s">
+        <v>15</v>
+      </c>
+      <c r="C81" t="s">
+        <v>8</v>
+      </c>
+      <c r="E81" s="2">
+        <v>43705</v>
+      </c>
+      <c r="G81" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A82">
+        <v>73</v>
+      </c>
+      <c r="B82" t="s">
+        <v>15</v>
+      </c>
+      <c r="C82" t="s">
+        <v>8</v>
+      </c>
+      <c r="E82" s="2">
+        <v>43705</v>
+      </c>
+      <c r="G82" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A83">
+        <v>73</v>
+      </c>
+      <c r="B83" t="s">
+        <v>6</v>
+      </c>
+      <c r="C83" t="s">
+        <v>8</v>
+      </c>
+      <c r="E83" s="2">
+        <v>43705</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A84">
+        <v>73</v>
+      </c>
+      <c r="B84" t="s">
+        <v>5</v>
+      </c>
+      <c r="C84" t="s">
+        <v>8</v>
+      </c>
+      <c r="E84" s="2">
+        <v>43705</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A85">
+        <v>66</v>
+      </c>
+      <c r="B85" t="s">
+        <v>15</v>
+      </c>
+      <c r="C85" t="s">
+        <v>8</v>
+      </c>
+      <c r="E85" s="2">
+        <v>43705</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A86">
+        <v>113</v>
+      </c>
+      <c r="B86" t="s">
+        <v>15</v>
+      </c>
+      <c r="C86" t="s">
+        <v>8</v>
+      </c>
+      <c r="E86" s="2">
+        <v>43705</v>
+      </c>
+      <c r="G86" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A87">
+        <v>96</v>
+      </c>
+      <c r="B87" t="s">
+        <v>15</v>
+      </c>
+      <c r="C87" t="s">
+        <v>8</v>
+      </c>
+      <c r="E87" s="2">
+        <v>43705</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A88">
+        <v>96</v>
+      </c>
+      <c r="B88" t="s">
+        <v>6</v>
+      </c>
+      <c r="C88" t="s">
+        <v>8</v>
+      </c>
+      <c r="E88" s="2">
+        <v>43705</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A89">
+        <v>96</v>
+      </c>
+      <c r="B89" t="s">
+        <v>5</v>
+      </c>
+      <c r="C89" t="s">
+        <v>8</v>
+      </c>
+      <c r="E89" s="2">
+        <v>43705</v>
       </c>
     </row>
   </sheetData>

--- a/AtCoder_record.xlsx
+++ b/AtCoder_record.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simon\codes\AtCoder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8F49635-608D-4D66-9CA5-CB748AF04EBE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EDDC809-B18A-4310-B968-A2515B4BC6F3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11565" yWindow="3795" windowWidth="15255" windowHeight="15885" xr2:uid="{9B9A1409-A6B9-4D33-8F83-A064BA4B158C}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="26">
   <si>
     <t>contest</t>
     <phoneticPr fontId="1"/>
@@ -555,11 +555,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40C233B7-3D4E-4872-A3EB-9A4A81938CC3}">
-  <dimension ref="A1:G89"/>
+  <dimension ref="A1:G116"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A70" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G87" sqref="G87"/>
+      <pane ySplit="1" topLeftCell="A81" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E90" sqref="E90:E116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1868,6 +1868,384 @@
       </c>
       <c r="E89" s="2">
         <v>43705</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A90">
+        <v>87</v>
+      </c>
+      <c r="B90" t="s">
+        <v>15</v>
+      </c>
+      <c r="C90" t="s">
+        <v>8</v>
+      </c>
+      <c r="E90" s="2">
+        <v>43706</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A91">
+        <v>87</v>
+      </c>
+      <c r="B91" t="s">
+        <v>6</v>
+      </c>
+      <c r="C91" t="s">
+        <v>8</v>
+      </c>
+      <c r="E91" s="2">
+        <v>43706</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A92">
+        <v>87</v>
+      </c>
+      <c r="B92" t="s">
+        <v>5</v>
+      </c>
+      <c r="C92" t="s">
+        <v>8</v>
+      </c>
+      <c r="E92" s="2">
+        <v>43706</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A93">
+        <v>92</v>
+      </c>
+      <c r="B93" t="s">
+        <v>15</v>
+      </c>
+      <c r="C93" t="s">
+        <v>8</v>
+      </c>
+      <c r="E93" s="2">
+        <v>43706</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A94">
+        <v>92</v>
+      </c>
+      <c r="B94" t="s">
+        <v>6</v>
+      </c>
+      <c r="C94" t="s">
+        <v>8</v>
+      </c>
+      <c r="E94" s="2">
+        <v>43706</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A95">
+        <v>92</v>
+      </c>
+      <c r="B95" t="s">
+        <v>5</v>
+      </c>
+      <c r="C95" t="s">
+        <v>8</v>
+      </c>
+      <c r="E95" s="2">
+        <v>43706</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A96">
+        <v>93</v>
+      </c>
+      <c r="B96" t="s">
+        <v>15</v>
+      </c>
+      <c r="C96" t="s">
+        <v>8</v>
+      </c>
+      <c r="E96" s="2">
+        <v>43706</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A97">
+        <v>93</v>
+      </c>
+      <c r="B97" t="s">
+        <v>6</v>
+      </c>
+      <c r="C97" t="s">
+        <v>8</v>
+      </c>
+      <c r="E97" s="2">
+        <v>43706</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A98">
+        <v>93</v>
+      </c>
+      <c r="B98" t="s">
+        <v>5</v>
+      </c>
+      <c r="C98" t="s">
+        <v>8</v>
+      </c>
+      <c r="E98" s="2">
+        <v>43706</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A99">
+        <v>100</v>
+      </c>
+      <c r="B99" t="s">
+        <v>15</v>
+      </c>
+      <c r="C99" t="s">
+        <v>8</v>
+      </c>
+      <c r="E99" s="2">
+        <v>43706</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A100">
+        <v>100</v>
+      </c>
+      <c r="B100" t="s">
+        <v>6</v>
+      </c>
+      <c r="C100" t="s">
+        <v>8</v>
+      </c>
+      <c r="E100" s="2">
+        <v>43706</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A101">
+        <v>100</v>
+      </c>
+      <c r="B101" t="s">
+        <v>5</v>
+      </c>
+      <c r="C101" t="s">
+        <v>8</v>
+      </c>
+      <c r="E101" s="2">
+        <v>43706</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A102">
+        <v>112</v>
+      </c>
+      <c r="B102" t="s">
+        <v>15</v>
+      </c>
+      <c r="C102" t="s">
+        <v>8</v>
+      </c>
+      <c r="E102" s="2">
+        <v>43706</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A103">
+        <v>112</v>
+      </c>
+      <c r="B103" t="s">
+        <v>6</v>
+      </c>
+      <c r="C103" t="s">
+        <v>8</v>
+      </c>
+      <c r="E103" s="2">
+        <v>43706</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A104">
+        <v>112</v>
+      </c>
+      <c r="B104" t="s">
+        <v>5</v>
+      </c>
+      <c r="C104" t="s">
+        <v>8</v>
+      </c>
+      <c r="E104" s="2">
+        <v>43706</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A105">
+        <v>111</v>
+      </c>
+      <c r="B105" t="s">
+        <v>15</v>
+      </c>
+      <c r="C105" t="s">
+        <v>8</v>
+      </c>
+      <c r="E105" s="2">
+        <v>43706</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A106">
+        <v>111</v>
+      </c>
+      <c r="B106" t="s">
+        <v>6</v>
+      </c>
+      <c r="C106" t="s">
+        <v>8</v>
+      </c>
+      <c r="E106" s="2">
+        <v>43706</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A107">
+        <v>111</v>
+      </c>
+      <c r="B107" t="s">
+        <v>5</v>
+      </c>
+      <c r="C107" t="s">
+        <v>8</v>
+      </c>
+      <c r="E107" s="2">
+        <v>43706</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A108">
+        <v>110</v>
+      </c>
+      <c r="B108" t="s">
+        <v>15</v>
+      </c>
+      <c r="C108" t="s">
+        <v>8</v>
+      </c>
+      <c r="E108" s="2">
+        <v>43706</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A109">
+        <v>110</v>
+      </c>
+      <c r="B109" t="s">
+        <v>6</v>
+      </c>
+      <c r="C109" t="s">
+        <v>8</v>
+      </c>
+      <c r="E109" s="2">
+        <v>43706</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A110">
+        <v>110</v>
+      </c>
+      <c r="B110" t="s">
+        <v>5</v>
+      </c>
+      <c r="C110" t="s">
+        <v>8</v>
+      </c>
+      <c r="E110" s="2">
+        <v>43706</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A111">
+        <v>109</v>
+      </c>
+      <c r="B111" t="s">
+        <v>15</v>
+      </c>
+      <c r="C111" t="s">
+        <v>8</v>
+      </c>
+      <c r="E111" s="2">
+        <v>43706</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A112">
+        <v>109</v>
+      </c>
+      <c r="B112" t="s">
+        <v>6</v>
+      </c>
+      <c r="C112" t="s">
+        <v>8</v>
+      </c>
+      <c r="E112" s="2">
+        <v>43706</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A113">
+        <v>109</v>
+      </c>
+      <c r="B113" t="s">
+        <v>5</v>
+      </c>
+      <c r="C113" t="s">
+        <v>8</v>
+      </c>
+      <c r="E113" s="2">
+        <v>43706</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A114">
+        <v>108</v>
+      </c>
+      <c r="B114" t="s">
+        <v>15</v>
+      </c>
+      <c r="C114" t="s">
+        <v>8</v>
+      </c>
+      <c r="E114" s="2">
+        <v>43706</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A115">
+        <v>108</v>
+      </c>
+      <c r="B115" t="s">
+        <v>6</v>
+      </c>
+      <c r="C115" t="s">
+        <v>8</v>
+      </c>
+      <c r="E115" s="2">
+        <v>43706</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A116">
+        <v>108</v>
+      </c>
+      <c r="B116" t="s">
+        <v>5</v>
+      </c>
+      <c r="C116" t="s">
+        <v>8</v>
+      </c>
+      <c r="E116" s="2">
+        <v>43706</v>
       </c>
     </row>
   </sheetData>

--- a/AtCoder_record.xlsx
+++ b/AtCoder_record.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simon\codes\AtCoder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EDDC809-B18A-4310-B968-A2515B4BC6F3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1FD7DD5-B896-416D-86D4-C6F65EE39F0E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11565" yWindow="3795" windowWidth="15255" windowHeight="15885" xr2:uid="{9B9A1409-A6B9-4D33-8F83-A064BA4B158C}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="26">
   <si>
     <t>contest</t>
     <phoneticPr fontId="1"/>
@@ -555,11 +555,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40C233B7-3D4E-4872-A3EB-9A4A81938CC3}">
-  <dimension ref="A1:G116"/>
+  <dimension ref="A1:G120"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A81" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E90" sqref="E90:E116"/>
+      <pane ySplit="1" topLeftCell="A99" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E121" sqref="E121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2192,7 +2192,7 @@
         <v>43706</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A113">
         <v>109</v>
       </c>
@@ -2206,7 +2206,7 @@
         <v>43706</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A114">
         <v>108</v>
       </c>
@@ -2220,7 +2220,7 @@
         <v>43706</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A115">
         <v>108</v>
       </c>
@@ -2234,7 +2234,7 @@
         <v>43706</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A116">
         <v>108</v>
       </c>
@@ -2246,6 +2246,68 @@
       </c>
       <c r="E116" s="2">
         <v>43706</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A117">
+        <v>107</v>
+      </c>
+      <c r="B117" t="s">
+        <v>15</v>
+      </c>
+      <c r="C117" t="s">
+        <v>8</v>
+      </c>
+      <c r="E117" s="2">
+        <v>43707</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A118">
+        <v>109</v>
+      </c>
+      <c r="B118" t="s">
+        <v>19</v>
+      </c>
+      <c r="C118" t="s">
+        <v>8</v>
+      </c>
+      <c r="D118" t="b">
+        <v>1</v>
+      </c>
+      <c r="E118" s="2">
+        <v>43709</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A119">
+        <v>113</v>
+      </c>
+      <c r="B119" t="s">
+        <v>19</v>
+      </c>
+      <c r="C119" t="s">
+        <v>8</v>
+      </c>
+      <c r="E119" s="2">
+        <v>43709</v>
+      </c>
+      <c r="F119" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A120">
+        <v>112</v>
+      </c>
+      <c r="B120" t="s">
+        <v>19</v>
+      </c>
+      <c r="C120" t="s">
+        <v>8</v>
+      </c>
+      <c r="E120" s="2">
+        <v>43709</v>
       </c>
     </row>
   </sheetData>

--- a/AtCoder_record.xlsx
+++ b/AtCoder_record.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simon\codes\AtCoder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1FD7DD5-B896-416D-86D4-C6F65EE39F0E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FA58222-19D7-4EB9-8BB6-3BC8280C25EE}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11565" yWindow="3795" windowWidth="15255" windowHeight="15885" xr2:uid="{9B9A1409-A6B9-4D33-8F83-A064BA4B158C}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="27">
   <si>
     <t>contest</t>
     <phoneticPr fontId="1"/>
@@ -176,6 +176,19 @@
     <t>lower_bound はbinary search的</t>
     <rPh sb="26" eb="27">
       <t>テキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>尺取り法</t>
+    <rPh sb="0" eb="1">
+      <t>シャク</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ホウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -555,11 +568,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40C233B7-3D4E-4872-A3EB-9A4A81938CC3}">
-  <dimension ref="A1:G120"/>
+  <dimension ref="A1:G121"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A99" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E121" sqref="E121"/>
+      <selection pane="bottomLeft" activeCell="F122" sqref="F122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2308,6 +2321,23 @@
       </c>
       <c r="E120" s="2">
         <v>43709</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A121">
+        <v>124</v>
+      </c>
+      <c r="B121" t="s">
+        <v>19</v>
+      </c>
+      <c r="C121" t="s">
+        <v>8</v>
+      </c>
+      <c r="E121" s="2">
+        <v>43709</v>
+      </c>
+      <c r="F121" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/AtCoder_record.xlsx
+++ b/AtCoder_record.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simon\codes\AtCoder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FA58222-19D7-4EB9-8BB6-3BC8280C25EE}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4613EB4-035F-46D1-996E-793A22EE7FE2}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11565" yWindow="3795" windowWidth="15255" windowHeight="15885" xr2:uid="{9B9A1409-A6B9-4D33-8F83-A064BA4B158C}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="29">
   <si>
     <t>contest</t>
     <phoneticPr fontId="1"/>
@@ -190,6 +190,14 @@
     <rPh sb="3" eb="4">
       <t>ホウ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>E</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>dfs, dag</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -568,11 +576,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40C233B7-3D4E-4872-A3EB-9A4A81938CC3}">
-  <dimension ref="A1:G121"/>
+  <dimension ref="A1:G128"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A99" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F122" sqref="F122"/>
+      <pane ySplit="1" topLeftCell="A120" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G129" sqref="G129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2338,6 +2346,113 @@
       </c>
       <c r="F121" t="s">
         <v>26</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A122">
+        <v>139</v>
+      </c>
+      <c r="B122" t="s">
+        <v>5</v>
+      </c>
+      <c r="C122" t="s">
+        <v>8</v>
+      </c>
+      <c r="E122" s="2">
+        <v>43709</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A123">
+        <v>139</v>
+      </c>
+      <c r="B123" t="s">
+        <v>6</v>
+      </c>
+      <c r="C123" t="s">
+        <v>8</v>
+      </c>
+      <c r="E123" s="2">
+        <v>43709</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A124">
+        <v>139</v>
+      </c>
+      <c r="B124" t="s">
+        <v>15</v>
+      </c>
+      <c r="C124" t="s">
+        <v>8</v>
+      </c>
+      <c r="E124" s="2">
+        <v>43709</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A125">
+        <v>139</v>
+      </c>
+      <c r="B125" t="s">
+        <v>19</v>
+      </c>
+      <c r="C125" t="s">
+        <v>8</v>
+      </c>
+      <c r="E125" s="2">
+        <v>43709</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A126">
+        <v>139</v>
+      </c>
+      <c r="B126" t="s">
+        <v>27</v>
+      </c>
+      <c r="C126" t="s">
+        <v>8</v>
+      </c>
+      <c r="D126" t="b">
+        <v>1</v>
+      </c>
+      <c r="E126" s="2">
+        <v>43710</v>
+      </c>
+      <c r="F126" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A127">
+        <v>129</v>
+      </c>
+      <c r="B127" t="s">
+        <v>19</v>
+      </c>
+      <c r="C127" t="s">
+        <v>8</v>
+      </c>
+      <c r="E127" s="2">
+        <v>43710</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A128">
+        <v>129</v>
+      </c>
+      <c r="B128" t="s">
+        <v>27</v>
+      </c>
+      <c r="C128" t="s">
+        <v>8</v>
+      </c>
+      <c r="E128" s="2">
+        <v>43710</v>
+      </c>
+      <c r="F128" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/AtCoder_record.xlsx
+++ b/AtCoder_record.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simon\codes\AtCoder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4613EB4-035F-46D1-996E-793A22EE7FE2}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACF9CC4E-0557-417B-9303-FDE5D85E2DFC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11565" yWindow="3795" windowWidth="15255" windowHeight="15885" xr2:uid="{9B9A1409-A6B9-4D33-8F83-A064BA4B158C}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="30">
   <si>
     <t>contest</t>
     <phoneticPr fontId="1"/>
@@ -198,6 +198,13 @@
   </si>
   <si>
     <t>dfs, dag</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>逆元</t>
+    <rPh sb="0" eb="2">
+      <t>ギャクゲン</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -576,11 +583,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40C233B7-3D4E-4872-A3EB-9A4A81938CC3}">
-  <dimension ref="A1:G128"/>
+  <dimension ref="A1:G129"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A120" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G129" sqref="G129"/>
+      <selection pane="bottomLeft" activeCell="F130" sqref="F130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2453,6 +2460,26 @@
       </c>
       <c r="F128" t="s">
         <v>20</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A129">
+        <v>110</v>
+      </c>
+      <c r="B129" t="s">
+        <v>19</v>
+      </c>
+      <c r="C129" t="s">
+        <v>8</v>
+      </c>
+      <c r="D129" t="b">
+        <v>1</v>
+      </c>
+      <c r="E129" s="2">
+        <v>43710</v>
+      </c>
+      <c r="F129" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/AtCoder_record.xlsx
+++ b/AtCoder_record.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simon\codes\AtCoder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACF9CC4E-0557-417B-9303-FDE5D85E2DFC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DDF5AC6-7190-4494-BACC-4FA8DA9A1AD4}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11565" yWindow="3795" windowWidth="15255" windowHeight="15885" xr2:uid="{9B9A1409-A6B9-4D33-8F83-A064BA4B158C}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="32">
   <si>
     <t>contest</t>
     <phoneticPr fontId="1"/>
@@ -204,6 +204,29 @@
     <t>逆元</t>
     <rPh sb="0" eb="2">
       <t>ギャクゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>二次元累積和</t>
+    <rPh sb="0" eb="3">
+      <t>ニジゲン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ルイセキ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>平面走査、BIT</t>
+    <rPh sb="0" eb="2">
+      <t>ヘイメン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ソウサ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -583,11 +606,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40C233B7-3D4E-4872-A3EB-9A4A81938CC3}">
-  <dimension ref="A1:G129"/>
+  <dimension ref="A1:G131"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A120" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F130" sqref="F130"/>
+      <selection pane="bottomLeft" activeCell="F132" sqref="F132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2480,6 +2503,46 @@
       </c>
       <c r="F129" t="s">
         <v>29</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A130">
+        <v>105</v>
+      </c>
+      <c r="B130" t="s">
+        <v>19</v>
+      </c>
+      <c r="C130" t="s">
+        <v>8</v>
+      </c>
+      <c r="D130" t="b">
+        <v>1</v>
+      </c>
+      <c r="E130" s="2">
+        <v>43713</v>
+      </c>
+      <c r="F130" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A131">
+        <v>105</v>
+      </c>
+      <c r="B131" t="s">
+        <v>19</v>
+      </c>
+      <c r="C131" t="s">
+        <v>8</v>
+      </c>
+      <c r="D131" t="b">
+        <v>1</v>
+      </c>
+      <c r="E131" s="2">
+        <v>43714</v>
+      </c>
+      <c r="F131" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/AtCoder_record.xlsx
+++ b/AtCoder_record.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simon\codes\AtCoder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D372A10D-57CE-481E-9AEC-828411771474}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7E6AFFD-513A-4AD6-B1E0-E759A9B48BD9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-720" yWindow="-315" windowWidth="2040" windowHeight="585" xr2:uid="{9B9A1409-A6B9-4D33-8F83-A064BA4B158C}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="29">
   <si>
     <t>contest</t>
     <phoneticPr fontId="1"/>
@@ -209,6 +209,25 @@
     </rPh>
     <rPh sb="8" eb="10">
       <t>ゾウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>似たようなことをしてるならメモ化再帰　バグ取り終わらない…</t>
+    <rPh sb="0" eb="1">
+      <t>ニ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>サイキ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>オ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -577,11 +596,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40C233B7-3D4E-4872-A3EB-9A4A81938CC3}">
-  <dimension ref="A1:G49"/>
+  <dimension ref="A1:G56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D44" sqref="D44"/>
+      <pane ySplit="1" topLeftCell="A43" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C57" sqref="C57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1372,6 +1391,110 @@
       </c>
       <c r="F49" t="s">
         <v>27</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A50">
+        <v>100</v>
+      </c>
+      <c r="B50" t="s">
+        <v>10</v>
+      </c>
+      <c r="C50" t="s">
+        <v>5</v>
+      </c>
+      <c r="E50" s="1">
+        <v>43716</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A51">
+        <v>99</v>
+      </c>
+      <c r="B51" t="s">
+        <v>10</v>
+      </c>
+      <c r="C51" t="s">
+        <v>5</v>
+      </c>
+      <c r="E51" s="1">
+        <v>43716</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A52">
+        <v>95</v>
+      </c>
+      <c r="B52" t="s">
+        <v>7</v>
+      </c>
+      <c r="C52" t="s">
+        <v>5</v>
+      </c>
+      <c r="E52" s="1">
+        <v>43716</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A53">
+        <v>95</v>
+      </c>
+      <c r="B53" t="s">
+        <v>10</v>
+      </c>
+      <c r="C53" t="s">
+        <v>26</v>
+      </c>
+      <c r="E53" s="1">
+        <v>43716</v>
+      </c>
+      <c r="F53" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A54">
+        <v>97</v>
+      </c>
+      <c r="B54" t="s">
+        <v>10</v>
+      </c>
+      <c r="C54" t="s">
+        <v>5</v>
+      </c>
+      <c r="E54" s="1">
+        <v>43716</v>
+      </c>
+      <c r="F54" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A55">
+        <v>97</v>
+      </c>
+      <c r="B55" t="s">
+        <v>7</v>
+      </c>
+      <c r="C55" t="s">
+        <v>5</v>
+      </c>
+      <c r="E55" s="1">
+        <v>43716</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A56">
+        <v>96</v>
+      </c>
+      <c r="B56" t="s">
+        <v>10</v>
+      </c>
+      <c r="C56" t="s">
+        <v>5</v>
+      </c>
+      <c r="E56" s="1">
+        <v>43717</v>
       </c>
     </row>
   </sheetData>

--- a/AtCoder_record.xlsx
+++ b/AtCoder_record.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simon\codes\AtCoder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7E6AFFD-513A-4AD6-B1E0-E759A9B48BD9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F50BDDF-0E41-4E36-A386-17DC1354757F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-720" yWindow="-315" windowWidth="2040" windowHeight="585" xr2:uid="{9B9A1409-A6B9-4D33-8F83-A064BA4B158C}"/>
+    <workbookView xWindow="990" yWindow="0" windowWidth="12255" windowHeight="11940" xr2:uid="{9B9A1409-A6B9-4D33-8F83-A064BA4B158C}"/>
   </bookViews>
   <sheets>
     <sheet name="ABC" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="31">
   <si>
     <t>contest</t>
     <phoneticPr fontId="1"/>
@@ -229,6 +229,20 @@
     <rPh sb="23" eb="24">
       <t>オ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>grid塗りつぶし、確定させる</t>
+    <rPh sb="4" eb="5">
+      <t>ヌ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>カクテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>xor むずい</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -596,11 +610,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40C233B7-3D4E-4872-A3EB-9A4A81938CC3}">
-  <dimension ref="A1:G56"/>
+  <dimension ref="A1:G63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A43" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C57" sqref="C57"/>
+      <pane ySplit="1" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D60" sqref="D60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1373,7 +1387,7 @@
         <v>43716</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A49">
         <v>98</v>
       </c>
@@ -1390,10 +1404,13 @@
         <v>43716</v>
       </c>
       <c r="F49" t="s">
+        <v>17</v>
+      </c>
+      <c r="G49" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A50">
         <v>100</v>
       </c>
@@ -1407,7 +1424,7 @@
         <v>43716</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A51">
         <v>99</v>
       </c>
@@ -1421,7 +1438,7 @@
         <v>43716</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A52">
         <v>95</v>
       </c>
@@ -1435,7 +1452,7 @@
         <v>43716</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A53">
         <v>95</v>
       </c>
@@ -1448,11 +1465,11 @@
       <c r="E53" s="1">
         <v>43716</v>
       </c>
-      <c r="F53" t="s">
+      <c r="G53" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A54">
         <v>97</v>
       </c>
@@ -1469,7 +1486,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A55">
         <v>97</v>
       </c>
@@ -1483,7 +1500,7 @@
         <v>43716</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A56">
         <v>96</v>
       </c>
@@ -1495,6 +1512,116 @@
       </c>
       <c r="E56" s="1">
         <v>43717</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A57">
+        <v>92</v>
+      </c>
+      <c r="B57" t="s">
+        <v>10</v>
+      </c>
+      <c r="C57" t="s">
+        <v>5</v>
+      </c>
+      <c r="D57" t="b">
+        <v>1</v>
+      </c>
+      <c r="E57" s="1">
+        <v>43717</v>
+      </c>
+      <c r="G57" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A58">
+        <v>94</v>
+      </c>
+      <c r="B58" t="s">
+        <v>7</v>
+      </c>
+      <c r="C58" t="s">
+        <v>5</v>
+      </c>
+      <c r="E58" s="1">
+        <v>43717</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A59">
+        <v>94</v>
+      </c>
+      <c r="B59" t="s">
+        <v>10</v>
+      </c>
+      <c r="C59" t="s">
+        <v>5</v>
+      </c>
+      <c r="E59" s="1">
+        <v>43717</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A60">
+        <v>91</v>
+      </c>
+      <c r="B60" t="s">
+        <v>10</v>
+      </c>
+      <c r="C60" t="s">
+        <v>26</v>
+      </c>
+      <c r="D60" t="b">
+        <v>1</v>
+      </c>
+      <c r="E60" s="1">
+        <v>43717</v>
+      </c>
+      <c r="G60" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A61">
+        <v>89</v>
+      </c>
+      <c r="B61" t="s">
+        <v>10</v>
+      </c>
+      <c r="C61" t="s">
+        <v>5</v>
+      </c>
+      <c r="E61" s="1">
+        <v>43717</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A62">
+        <v>89</v>
+      </c>
+      <c r="B62" t="s">
+        <v>7</v>
+      </c>
+      <c r="C62" t="s">
+        <v>5</v>
+      </c>
+      <c r="E62" s="1">
+        <v>43717</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A63">
+        <v>87</v>
+      </c>
+      <c r="B63" t="s">
+        <v>10</v>
+      </c>
+      <c r="C63" t="s">
+        <v>26</v>
+      </c>
+      <c r="E63" s="1">
+        <v>43718</v>
       </c>
     </row>
   </sheetData>

--- a/AtCoder_record.xlsx
+++ b/AtCoder_record.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simon\codes\AtCoder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F50BDDF-0E41-4E36-A386-17DC1354757F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76DAC759-9A48-40F5-822E-803A13A6994A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="990" yWindow="0" windowWidth="12255" windowHeight="11940" xr2:uid="{9B9A1409-A6B9-4D33-8F83-A064BA4B158C}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="39">
   <si>
     <t>contest</t>
     <phoneticPr fontId="1"/>
@@ -213,25 +213,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>似たようなことをしてるならメモ化再帰　バグ取り終わらない…</t>
-    <rPh sb="0" eb="1">
-      <t>ニ</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>カ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>サイキ</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>ト</t>
-    </rPh>
-    <rPh sb="23" eb="24">
-      <t>オ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>grid塗りつぶし、確定させる</t>
     <rPh sb="4" eb="5">
       <t>ヌ</t>
@@ -242,7 +223,78 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>xor むずい</t>
+    <t>バグが取れない</t>
+    <rPh sb="3" eb="4">
+      <t>ト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メモ化</t>
+    <rPh sb="2" eb="3">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BFS</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>二乗累積和</t>
+    <rPh sb="0" eb="2">
+      <t>ニジョウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ルイセキ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>制約からヒント</t>
+    <rPh sb="0" eb="2">
+      <t>セイヤク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>わからん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Not Answered</t>
+  </si>
+  <si>
+    <t>次元圧縮</t>
+    <rPh sb="0" eb="2">
+      <t>ジゲン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>アッシュク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>x軸とy軸を独立で考えられるか</t>
+    <rPh sb="1" eb="2">
+      <t>ジク</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ジク</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ドクリツ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>カンガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ワーシャルフロイド</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -610,16 +662,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40C233B7-3D4E-4872-A3EB-9A4A81938CC3}">
-  <dimension ref="A1:G63"/>
+  <dimension ref="A1:G80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D60" sqref="D60"/>
+      <pane ySplit="1" topLeftCell="A60" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F79" sqref="F79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="5" max="5" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.4">
@@ -1465,8 +1518,11 @@
       <c r="E53" s="1">
         <v>43716</v>
       </c>
+      <c r="F53" t="s">
+        <v>30</v>
+      </c>
       <c r="G53" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.4">
@@ -1531,7 +1587,7 @@
         <v>43717</v>
       </c>
       <c r="G57" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.4">
@@ -1570,7 +1626,7 @@
         <v>10</v>
       </c>
       <c r="C60" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="D60" t="b">
         <v>1</v>
@@ -1579,7 +1635,7 @@
         <v>43717</v>
       </c>
       <c r="G60" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.4">
@@ -1622,6 +1678,277 @@
       </c>
       <c r="E63" s="1">
         <v>43718</v>
+      </c>
+      <c r="G63" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A64">
+        <v>88</v>
+      </c>
+      <c r="B64" t="s">
+        <v>10</v>
+      </c>
+      <c r="C64" t="s">
+        <v>5</v>
+      </c>
+      <c r="E64" s="1">
+        <v>43718</v>
+      </c>
+      <c r="F64" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A65">
+        <v>90</v>
+      </c>
+      <c r="B65" t="s">
+        <v>10</v>
+      </c>
+      <c r="C65" t="s">
+        <v>5</v>
+      </c>
+      <c r="E65" s="1">
+        <v>43718</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A66">
+        <v>90</v>
+      </c>
+      <c r="B66" t="s">
+        <v>7</v>
+      </c>
+      <c r="C66" t="s">
+        <v>5</v>
+      </c>
+      <c r="E66" s="1">
+        <v>43718</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A67">
+        <v>88</v>
+      </c>
+      <c r="B67" t="s">
+        <v>7</v>
+      </c>
+      <c r="C67" t="s">
+        <v>5</v>
+      </c>
+      <c r="E67" s="1">
+        <v>43718</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A68">
+        <v>85</v>
+      </c>
+      <c r="B68" t="s">
+        <v>10</v>
+      </c>
+      <c r="C68" t="s">
+        <v>5</v>
+      </c>
+      <c r="E68" s="1">
+        <v>43718</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A69">
+        <v>85</v>
+      </c>
+      <c r="B69" t="s">
+        <v>7</v>
+      </c>
+      <c r="C69" t="s">
+        <v>5</v>
+      </c>
+      <c r="E69" s="1">
+        <v>43718</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A70">
+        <v>108</v>
+      </c>
+      <c r="B70" t="s">
+        <v>10</v>
+      </c>
+      <c r="C70" t="s">
+        <v>5</v>
+      </c>
+      <c r="D70" t="b">
+        <v>1</v>
+      </c>
+      <c r="E70" s="1">
+        <v>43718</v>
+      </c>
+      <c r="F70" t="s">
+        <v>32</v>
+      </c>
+      <c r="G70" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A71">
+        <v>107</v>
+      </c>
+      <c r="B71" t="s">
+        <v>10</v>
+      </c>
+      <c r="C71" t="s">
+        <v>35</v>
+      </c>
+      <c r="D71" t="b">
+        <v>1</v>
+      </c>
+      <c r="E71" s="1">
+        <v>43718</v>
+      </c>
+      <c r="G71" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A72">
+        <v>84</v>
+      </c>
+      <c r="B72" t="s">
+        <v>10</v>
+      </c>
+      <c r="C72" t="s">
+        <v>5</v>
+      </c>
+      <c r="E72" s="1">
+        <v>43718</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A73">
+        <v>84</v>
+      </c>
+      <c r="B73" t="s">
+        <v>7</v>
+      </c>
+      <c r="C73" t="s">
+        <v>5</v>
+      </c>
+      <c r="E73" s="1">
+        <v>43718</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A74">
+        <v>83</v>
+      </c>
+      <c r="B74" t="s">
+        <v>10</v>
+      </c>
+      <c r="C74" t="s">
+        <v>5</v>
+      </c>
+      <c r="D74" t="b">
+        <v>1</v>
+      </c>
+      <c r="E74" s="1">
+        <v>43718</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A75">
+        <v>82</v>
+      </c>
+      <c r="B75" t="s">
+        <v>7</v>
+      </c>
+      <c r="C75" t="s">
+        <v>5</v>
+      </c>
+      <c r="E75" s="1">
+        <v>43719</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A76">
+        <v>82</v>
+      </c>
+      <c r="B76" t="s">
+        <v>10</v>
+      </c>
+      <c r="C76" t="s">
+        <v>5</v>
+      </c>
+      <c r="E76" s="1">
+        <v>43719</v>
+      </c>
+      <c r="F76" t="s">
+        <v>36</v>
+      </c>
+      <c r="G76" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A77">
+        <v>81</v>
+      </c>
+      <c r="B77" t="s">
+        <v>10</v>
+      </c>
+      <c r="C77" t="s">
+        <v>5</v>
+      </c>
+      <c r="E77" s="1">
+        <v>43719</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A78">
+        <v>81</v>
+      </c>
+      <c r="B78" t="s">
+        <v>7</v>
+      </c>
+      <c r="C78" t="s">
+        <v>5</v>
+      </c>
+      <c r="E78" s="1">
+        <v>43719</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A79">
+        <v>79</v>
+      </c>
+      <c r="B79" t="s">
+        <v>7</v>
+      </c>
+      <c r="C79" t="s">
+        <v>5</v>
+      </c>
+      <c r="E79" s="1">
+        <v>43719</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A80">
+        <v>79</v>
+      </c>
+      <c r="B80" t="s">
+        <v>10</v>
+      </c>
+      <c r="C80" t="s">
+        <v>5</v>
+      </c>
+      <c r="E80" s="1">
+        <v>43719</v>
+      </c>
+      <c r="F80" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -1629,7 +1956,7 @@
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C1048576" xr:uid="{73954FCB-6CAE-4348-A109-7122C619CB33}">
-      <formula1>"AC, WA, TLE"</formula1>
+      <formula1>"AC, WA, TLE, Not Answered"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AtCoder_record.xlsx
+++ b/AtCoder_record.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simon\codes\AtCoder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76DAC759-9A48-40F5-822E-803A13A6994A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A02C9A83-E954-4B90-BE9E-6ACEA6177850}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="990" yWindow="0" windowWidth="12255" windowHeight="11940" xr2:uid="{9B9A1409-A6B9-4D33-8F83-A064BA4B158C}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="40">
   <si>
     <t>contest</t>
     <phoneticPr fontId="1"/>
@@ -295,6 +295,28 @@
   </si>
   <si>
     <t>ワーシャルフロイド</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>秒ごとに見ればいい、線引くのは実装重すぎるのでやめとけ</t>
+    <rPh sb="0" eb="1">
+      <t>ビョウ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>セン</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ジッソウ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>オモ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -662,11 +684,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40C233B7-3D4E-4872-A3EB-9A4A81938CC3}">
-  <dimension ref="A1:G80"/>
+  <dimension ref="A1:G89"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A60" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F79" sqref="F79"/>
+      <pane ySplit="1" topLeftCell="A69" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H80" sqref="H80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1949,6 +1971,135 @@
       </c>
       <c r="F80" t="s">
         <v>38</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A81">
+        <v>80</v>
+      </c>
+      <c r="B81" t="s">
+        <v>7</v>
+      </c>
+      <c r="C81" t="s">
+        <v>5</v>
+      </c>
+      <c r="E81" s="1">
+        <v>43719</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A82">
+        <v>80</v>
+      </c>
+      <c r="B82" t="s">
+        <v>10</v>
+      </c>
+      <c r="C82" t="s">
+        <v>5</v>
+      </c>
+      <c r="E82" s="1">
+        <v>43719</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A83">
+        <v>78</v>
+      </c>
+      <c r="B83" t="s">
+        <v>7</v>
+      </c>
+      <c r="C83" t="s">
+        <v>5</v>
+      </c>
+      <c r="E83" s="1">
+        <v>43719</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A84">
+        <v>78</v>
+      </c>
+      <c r="B84" t="s">
+        <v>10</v>
+      </c>
+      <c r="C84" t="s">
+        <v>5</v>
+      </c>
+      <c r="E84" s="1">
+        <v>43719</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A85">
+        <v>76</v>
+      </c>
+      <c r="B85" t="s">
+        <v>7</v>
+      </c>
+      <c r="C85" t="s">
+        <v>5</v>
+      </c>
+      <c r="E85" s="1">
+        <v>43719</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A86">
+        <v>76</v>
+      </c>
+      <c r="B86" t="s">
+        <v>10</v>
+      </c>
+      <c r="C86" t="s">
+        <v>26</v>
+      </c>
+      <c r="E86" s="1">
+        <v>43719</v>
+      </c>
+      <c r="G86" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A87">
+        <v>71</v>
+      </c>
+      <c r="B87" t="s">
+        <v>10</v>
+      </c>
+      <c r="C87" t="s">
+        <v>5</v>
+      </c>
+      <c r="E87" s="1">
+        <v>43719</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A88">
+        <v>71</v>
+      </c>
+      <c r="B88" t="s">
+        <v>7</v>
+      </c>
+      <c r="C88" t="s">
+        <v>5</v>
+      </c>
+      <c r="E88" s="1">
+        <v>43719</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A89">
+        <v>68</v>
+      </c>
+      <c r="B89" t="s">
+        <v>10</v>
+      </c>
+      <c r="C89" t="s">
+        <v>5</v>
+      </c>
+      <c r="E89" s="1">
+        <v>43720</v>
       </c>
     </row>
   </sheetData>

--- a/AtCoder_record.xlsx
+++ b/AtCoder_record.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simon\codes\AtCoder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A02C9A83-E954-4B90-BE9E-6ACEA6177850}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6897272F-DE44-4762-88A8-95AF55DCBB06}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="990" yWindow="0" windowWidth="12255" windowHeight="11940" xr2:uid="{9B9A1409-A6B9-4D33-8F83-A064BA4B158C}"/>
+    <workbookView xWindow="7170" yWindow="4455" windowWidth="12255" windowHeight="11940" xr2:uid="{9B9A1409-A6B9-4D33-8F83-A064BA4B158C}"/>
   </bookViews>
   <sheets>
     <sheet name="ABC" sheetId="1" r:id="rId1"/>
+    <sheet name="TODO" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ABC!$A$1:$G$1</definedName>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="43">
   <si>
     <t>contest</t>
     <phoneticPr fontId="1"/>
@@ -316,6 +317,39 @@
     </rPh>
     <rPh sb="17" eb="18">
       <t>オモ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>部分文字列</t>
+    <rPh sb="0" eb="2">
+      <t>ブブン</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>モジレツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DFSのライブラリ化</t>
+    <rPh sb="9" eb="10">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MODINVについて二乗累積和を検討する</t>
+    <rPh sb="10" eb="12">
+      <t>ニジョウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ルイセキ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ワ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ケントウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -684,11 +718,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40C233B7-3D4E-4872-A3EB-9A4A81938CC3}">
-  <dimension ref="A1:G89"/>
+  <dimension ref="A1:G100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A69" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H80" sqref="H80"/>
+      <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E100" sqref="E100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1696,13 +1730,16 @@
         <v>10</v>
       </c>
       <c r="C63" t="s">
-        <v>26</v>
+        <v>5</v>
+      </c>
+      <c r="D63" t="b">
+        <v>1</v>
       </c>
       <c r="E63" s="1">
-        <v>43718</v>
-      </c>
-      <c r="G63" t="s">
-        <v>29</v>
+        <v>43720</v>
+      </c>
+      <c r="F63" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.4">
@@ -2100,6 +2137,166 @@
       </c>
       <c r="E89" s="1">
         <v>43720</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A90">
+        <v>69</v>
+      </c>
+      <c r="B90" t="s">
+        <v>7</v>
+      </c>
+      <c r="C90" t="s">
+        <v>5</v>
+      </c>
+      <c r="E90" s="1">
+        <v>43720</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A91">
+        <v>69</v>
+      </c>
+      <c r="B91" t="s">
+        <v>10</v>
+      </c>
+      <c r="C91" t="s">
+        <v>5</v>
+      </c>
+      <c r="E91" s="1">
+        <v>43720</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A92">
+        <v>66</v>
+      </c>
+      <c r="B92" t="s">
+        <v>10</v>
+      </c>
+      <c r="C92" t="s">
+        <v>5</v>
+      </c>
+      <c r="D92" t="b">
+        <v>1</v>
+      </c>
+      <c r="E92" s="1">
+        <v>43720</v>
+      </c>
+      <c r="F92" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A93">
+        <v>70</v>
+      </c>
+      <c r="B93" t="s">
+        <v>10</v>
+      </c>
+      <c r="C93" t="s">
+        <v>5</v>
+      </c>
+      <c r="E93" s="1">
+        <v>43720</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A94">
+        <v>70</v>
+      </c>
+      <c r="B94" t="s">
+        <v>7</v>
+      </c>
+      <c r="C94" t="s">
+        <v>5</v>
+      </c>
+      <c r="E94" s="1">
+        <v>43720</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A95">
+        <v>73</v>
+      </c>
+      <c r="B95" t="s">
+        <v>10</v>
+      </c>
+      <c r="C95" t="s">
+        <v>5</v>
+      </c>
+      <c r="E95" s="1">
+        <v>43721</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A96">
+        <v>67</v>
+      </c>
+      <c r="B96" t="s">
+        <v>7</v>
+      </c>
+      <c r="C96" t="s">
+        <v>5</v>
+      </c>
+      <c r="E96" s="1">
+        <v>43721</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A97">
+        <v>67</v>
+      </c>
+      <c r="B97" t="s">
+        <v>10</v>
+      </c>
+      <c r="C97" t="s">
+        <v>5</v>
+      </c>
+      <c r="E97" s="1">
+        <v>43721</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A98">
+        <v>72</v>
+      </c>
+      <c r="B98" t="s">
+        <v>7</v>
+      </c>
+      <c r="C98" t="s">
+        <v>5</v>
+      </c>
+      <c r="E98" s="1">
+        <v>43721</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A99">
+        <v>72</v>
+      </c>
+      <c r="B99" t="s">
+        <v>10</v>
+      </c>
+      <c r="C99" t="s">
+        <v>5</v>
+      </c>
+      <c r="E99" s="1">
+        <v>43721</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A100">
+        <v>74</v>
+      </c>
+      <c r="B100" t="s">
+        <v>7</v>
+      </c>
+      <c r="C100" t="s">
+        <v>5</v>
+      </c>
+      <c r="E100" s="1">
+        <v>43722</v>
       </c>
     </row>
   </sheetData>
@@ -2113,4 +2310,30 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{602BCC14-ABD2-46B0-A7E7-BF34DB839E1B}">
+  <dimension ref="A2:A3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/AtCoder_record.xlsx
+++ b/AtCoder_record.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simon\codes\AtCoder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6897272F-DE44-4762-88A8-95AF55DCBB06}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16031AF8-A74E-4707-9DBB-32EB23AFE1D6}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7170" yWindow="4455" windowWidth="12255" windowHeight="11940" xr2:uid="{9B9A1409-A6B9-4D33-8F83-A064BA4B158C}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="52">
   <si>
     <t>contest</t>
     <phoneticPr fontId="1"/>
@@ -81,10 +81,6 @@
   </si>
   <si>
     <t>digit dp</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>failFirst</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -350,6 +346,124 @@
     </rPh>
     <rPh sb="16" eb="18">
       <t>ケントウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Prim</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Retry</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>二分探索</t>
+    <rPh sb="0" eb="2">
+      <t>ニブン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>タンサク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>特殊形ナップサック</t>
+    <rPh sb="0" eb="2">
+      <t>トクシュ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>個数に関するメモは0インデックスに0を割り当てて、細かいインデックス操作を省略する</t>
+    <rPh sb="0" eb="2">
+      <t>コスウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>カン</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ワ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>コマ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ソウサ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>ショウリャク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>lowlink</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コスト正の最大化問題はコスト負の最小化問題</t>
+    <rPh sb="3" eb="4">
+      <t>セイ</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>サイダイカ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>モンダイ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>フ</t>
+    </rPh>
+    <rPh sb="16" eb="19">
+      <t>サイショウカ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>モンダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>最小木</t>
+    <rPh sb="0" eb="2">
+      <t>サイショウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>必勝条件を考える</t>
+    <rPh sb="0" eb="2">
+      <t>ヒッショウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジョウケン</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>カンガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>使わない場合のdp更新し忘れ</t>
+    <rPh sb="0" eb="1">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ワス</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -718,11 +832,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40C233B7-3D4E-4872-A3EB-9A4A81938CC3}">
-  <dimension ref="A1:G100"/>
+  <dimension ref="A1:G128"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E100" sqref="E100"/>
+      <pane ySplit="1" topLeftCell="A106" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B127" sqref="B127:E128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -742,7 +856,7 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="E1" t="s">
         <v>6</v>
@@ -884,7 +998,7 @@
         <v>43705</v>
       </c>
       <c r="F9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.4">
@@ -901,7 +1015,7 @@
         <v>43705</v>
       </c>
       <c r="G10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.4">
@@ -918,7 +1032,7 @@
         <v>43705</v>
       </c>
       <c r="G11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.4">
@@ -949,7 +1063,7 @@
         <v>43705</v>
       </c>
       <c r="G13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.4">
@@ -1168,7 +1282,7 @@
         <v>43709</v>
       </c>
       <c r="F28" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.4">
@@ -1204,7 +1318,7 @@
         <v>139</v>
       </c>
       <c r="B31" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C31" t="s">
         <v>5</v>
@@ -1216,7 +1330,7 @@
         <v>43710</v>
       </c>
       <c r="F31" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.4">
@@ -1238,7 +1352,7 @@
         <v>129</v>
       </c>
       <c r="B33" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C33" t="s">
         <v>5</v>
@@ -1267,7 +1381,7 @@
         <v>43710</v>
       </c>
       <c r="F34" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.4">
@@ -1287,7 +1401,7 @@
         <v>43713</v>
       </c>
       <c r="F35" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.4">
@@ -1307,7 +1421,7 @@
         <v>43714</v>
       </c>
       <c r="F36" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.4">
@@ -1344,7 +1458,7 @@
         <v>43715</v>
       </c>
       <c r="F38" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.4">
@@ -1361,7 +1475,7 @@
         <v>43715</v>
       </c>
       <c r="F39" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.4">
@@ -1395,7 +1509,7 @@
         <v>43715</v>
       </c>
       <c r="F41" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.4">
@@ -1473,10 +1587,10 @@
         <v>140</v>
       </c>
       <c r="B47" t="s">
+        <v>24</v>
+      </c>
+      <c r="C47" t="s">
         <v>25</v>
-      </c>
-      <c r="C47" t="s">
-        <v>26</v>
       </c>
       <c r="E47" s="1">
         <v>43716</v>
@@ -1513,10 +1627,10 @@
         <v>43716</v>
       </c>
       <c r="F49" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G49" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.4">
@@ -1569,16 +1683,16 @@
         <v>10</v>
       </c>
       <c r="C53" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E53" s="1">
         <v>43716</v>
       </c>
       <c r="F53" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G53" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.4">
@@ -1595,7 +1709,7 @@
         <v>43716</v>
       </c>
       <c r="F54" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.4">
@@ -1643,7 +1757,7 @@
         <v>43717</v>
       </c>
       <c r="G57" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.4">
@@ -1682,7 +1796,7 @@
         <v>10</v>
       </c>
       <c r="C60" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D60" t="b">
         <v>1</v>
@@ -1691,7 +1805,7 @@
         <v>43717</v>
       </c>
       <c r="G60" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.4">
@@ -1756,7 +1870,7 @@
         <v>43718</v>
       </c>
       <c r="F64" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.4">
@@ -1846,10 +1960,10 @@
         <v>43718</v>
       </c>
       <c r="F70" t="s">
+        <v>31</v>
+      </c>
+      <c r="G70" t="s">
         <v>32</v>
-      </c>
-      <c r="G70" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.4">
@@ -1860,7 +1974,7 @@
         <v>10</v>
       </c>
       <c r="C71" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D71" t="b">
         <v>1</v>
@@ -1869,7 +1983,7 @@
         <v>43718</v>
       </c>
       <c r="G71" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.4">
@@ -1945,10 +2059,10 @@
         <v>43719</v>
       </c>
       <c r="F76" t="s">
+        <v>35</v>
+      </c>
+      <c r="G76" t="s">
         <v>36</v>
-      </c>
-      <c r="G76" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.4">
@@ -2007,7 +2121,7 @@
         <v>43719</v>
       </c>
       <c r="F80" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.4">
@@ -2088,13 +2202,13 @@
         <v>10</v>
       </c>
       <c r="C86" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E86" s="1">
         <v>43719</v>
       </c>
       <c r="G86" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.4">
@@ -2184,7 +2298,7 @@
         <v>43720</v>
       </c>
       <c r="F92" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.4">
@@ -2243,7 +2357,7 @@
         <v>43721</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A97">
         <v>67</v>
       </c>
@@ -2257,7 +2371,7 @@
         <v>43721</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A98">
         <v>72</v>
       </c>
@@ -2271,7 +2385,7 @@
         <v>43721</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A99">
         <v>72</v>
       </c>
@@ -2285,7 +2399,7 @@
         <v>43721</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A100">
         <v>74</v>
       </c>
@@ -2297,6 +2411,443 @@
       </c>
       <c r="E100" s="1">
         <v>43722</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A101">
+        <v>65</v>
+      </c>
+      <c r="B101" t="s">
+        <v>7</v>
+      </c>
+      <c r="C101" t="s">
+        <v>5</v>
+      </c>
+      <c r="E101" s="1">
+        <v>43725</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A102">
+        <v>65</v>
+      </c>
+      <c r="B102" t="s">
+        <v>10</v>
+      </c>
+      <c r="C102" t="s">
+        <v>5</v>
+      </c>
+      <c r="E102" s="1">
+        <v>43725</v>
+      </c>
+      <c r="F102" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A103">
+        <v>75</v>
+      </c>
+      <c r="B103" t="s">
+        <v>7</v>
+      </c>
+      <c r="C103" t="s">
+        <v>5</v>
+      </c>
+      <c r="E103" s="1">
+        <v>43725</v>
+      </c>
+      <c r="F103" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A104">
+        <v>75</v>
+      </c>
+      <c r="B104" t="s">
+        <v>10</v>
+      </c>
+      <c r="C104" t="s">
+        <v>25</v>
+      </c>
+      <c r="D104" t="b">
+        <v>1</v>
+      </c>
+      <c r="E104" s="1">
+        <v>43725</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A105">
+        <v>141</v>
+      </c>
+      <c r="B105" t="s">
+        <v>17</v>
+      </c>
+      <c r="C105" t="s">
+        <v>5</v>
+      </c>
+      <c r="D105" t="b">
+        <v>1</v>
+      </c>
+      <c r="E105" s="1">
+        <v>43725</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A106">
+        <v>141</v>
+      </c>
+      <c r="B106" t="s">
+        <v>10</v>
+      </c>
+      <c r="C106" t="s">
+        <v>5</v>
+      </c>
+      <c r="E106" s="1">
+        <v>43725</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A107">
+        <v>141</v>
+      </c>
+      <c r="B107" t="s">
+        <v>7</v>
+      </c>
+      <c r="C107" t="s">
+        <v>5</v>
+      </c>
+      <c r="E107" s="1">
+        <v>43725</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A108">
+        <v>64</v>
+      </c>
+      <c r="B108" t="s">
+        <v>10</v>
+      </c>
+      <c r="C108" t="s">
+        <v>5</v>
+      </c>
+      <c r="E108" s="1">
+        <v>43726</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A109">
+        <v>64</v>
+      </c>
+      <c r="B109" t="s">
+        <v>7</v>
+      </c>
+      <c r="C109" t="s">
+        <v>5</v>
+      </c>
+      <c r="E109" s="1">
+        <v>43726</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A110">
+        <v>63</v>
+      </c>
+      <c r="B110" t="s">
+        <v>10</v>
+      </c>
+      <c r="C110" t="s">
+        <v>5</v>
+      </c>
+      <c r="D110" t="b">
+        <v>1</v>
+      </c>
+      <c r="E110" s="1">
+        <v>43726</v>
+      </c>
+      <c r="F110" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A111">
+        <v>63</v>
+      </c>
+      <c r="B111" t="s">
+        <v>7</v>
+      </c>
+      <c r="C111" t="s">
+        <v>5</v>
+      </c>
+      <c r="E111" s="1">
+        <v>43726</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A112">
+        <v>62</v>
+      </c>
+      <c r="B112" t="s">
+        <v>10</v>
+      </c>
+      <c r="C112" t="s">
+        <v>5</v>
+      </c>
+      <c r="E112" s="1">
+        <v>43726</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A113">
+        <v>62</v>
+      </c>
+      <c r="B113" t="s">
+        <v>7</v>
+      </c>
+      <c r="C113" t="s">
+        <v>5</v>
+      </c>
+      <c r="E113" s="1">
+        <v>43726</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A114">
+        <v>60</v>
+      </c>
+      <c r="B114" t="s">
+        <v>7</v>
+      </c>
+      <c r="C114" t="s">
+        <v>5</v>
+      </c>
+      <c r="E114" s="1">
+        <v>43726</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A115">
+        <v>60</v>
+      </c>
+      <c r="B115" t="s">
+        <v>10</v>
+      </c>
+      <c r="C115" t="s">
+        <v>5</v>
+      </c>
+      <c r="D115" t="b">
+        <v>1</v>
+      </c>
+      <c r="E115" s="1">
+        <v>43726</v>
+      </c>
+      <c r="F115" t="s">
+        <v>45</v>
+      </c>
+      <c r="G115" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A116">
+        <v>61</v>
+      </c>
+      <c r="B116" t="s">
+        <v>7</v>
+      </c>
+      <c r="C116" t="s">
+        <v>5</v>
+      </c>
+      <c r="E116" s="1">
+        <v>43726</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A117">
+        <v>61</v>
+      </c>
+      <c r="B117" t="s">
+        <v>10</v>
+      </c>
+      <c r="C117" t="s">
+        <v>25</v>
+      </c>
+      <c r="D117" t="b">
+        <v>1</v>
+      </c>
+      <c r="E117" s="1">
+        <v>43726</v>
+      </c>
+      <c r="F117" t="s">
+        <v>49</v>
+      </c>
+      <c r="G117" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A118">
+        <v>59</v>
+      </c>
+      <c r="B118" t="s">
+        <v>7</v>
+      </c>
+      <c r="C118" t="s">
+        <v>5</v>
+      </c>
+      <c r="E118" s="1">
+        <v>43727</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A119">
+        <v>59</v>
+      </c>
+      <c r="B119" t="s">
+        <v>10</v>
+      </c>
+      <c r="C119" t="s">
+        <v>5</v>
+      </c>
+      <c r="E119" s="1">
+        <v>43727</v>
+      </c>
+      <c r="G119" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A120">
+        <v>58</v>
+      </c>
+      <c r="B120" t="s">
+        <v>7</v>
+      </c>
+      <c r="C120" t="s">
+        <v>5</v>
+      </c>
+      <c r="E120" s="1">
+        <v>43727</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A121">
+        <v>58</v>
+      </c>
+      <c r="B121" t="s">
+        <v>10</v>
+      </c>
+      <c r="C121" t="s">
+        <v>5</v>
+      </c>
+      <c r="E121" s="1">
+        <v>43727</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A122">
+        <v>54</v>
+      </c>
+      <c r="B122" t="s">
+        <v>10</v>
+      </c>
+      <c r="D122" t="b">
+        <v>1</v>
+      </c>
+      <c r="E122" s="1">
+        <v>43727</v>
+      </c>
+      <c r="F122" t="s">
+        <v>8</v>
+      </c>
+      <c r="G122" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A123">
+        <v>57</v>
+      </c>
+      <c r="B123" t="s">
+        <v>7</v>
+      </c>
+      <c r="C123" t="s">
+        <v>5</v>
+      </c>
+      <c r="E123" s="1">
+        <v>43727</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A124">
+        <v>57</v>
+      </c>
+      <c r="B124" t="s">
+        <v>10</v>
+      </c>
+      <c r="C124" t="s">
+        <v>5</v>
+      </c>
+      <c r="E124" s="1">
+        <v>43727</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A125">
+        <v>128</v>
+      </c>
+      <c r="B125" t="s">
+        <v>7</v>
+      </c>
+      <c r="C125" t="s">
+        <v>5</v>
+      </c>
+      <c r="E125" s="1">
+        <v>43728</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A126">
+        <v>128</v>
+      </c>
+      <c r="B126" t="s">
+        <v>10</v>
+      </c>
+      <c r="C126" t="s">
+        <v>5</v>
+      </c>
+      <c r="E126" s="1">
+        <v>43728</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A127">
+        <v>56</v>
+      </c>
+      <c r="B127" t="s">
+        <v>7</v>
+      </c>
+      <c r="C127" t="s">
+        <v>5</v>
+      </c>
+      <c r="E127" s="1">
+        <v>43728</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A128">
+        <v>56</v>
+      </c>
+      <c r="B128" t="s">
+        <v>10</v>
+      </c>
+      <c r="C128" t="s">
+        <v>5</v>
+      </c>
+      <c r="E128" s="1">
+        <v>43728</v>
       </c>
     </row>
   </sheetData>
@@ -2324,12 +2875,12 @@
   <sheetData>
     <row r="2" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/AtCoder_record.xlsx
+++ b/AtCoder_record.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simon\codes\AtCoder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16031AF8-A74E-4707-9DBB-32EB23AFE1D6}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ADD246A-0925-407D-B530-30593224C504}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7170" yWindow="4455" windowWidth="12255" windowHeight="11940" xr2:uid="{9B9A1409-A6B9-4D33-8F83-A064BA4B158C}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="53">
   <si>
     <t>contest</t>
     <phoneticPr fontId="1"/>
@@ -465,6 +465,10 @@
     <rPh sb="12" eb="13">
       <t>ワス</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>warshall-froyd</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -832,11 +836,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40C233B7-3D4E-4872-A3EB-9A4A81938CC3}">
-  <dimension ref="A1:G128"/>
+  <dimension ref="A1:G135"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A106" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B127" sqref="B127:E128"/>
+      <pane ySplit="1" topLeftCell="A116" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F131" sqref="F131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2848,6 +2852,119 @@
       </c>
       <c r="E128" s="1">
         <v>43728</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A129">
+        <v>53</v>
+      </c>
+      <c r="B129" t="s">
+        <v>7</v>
+      </c>
+      <c r="C129" t="s">
+        <v>5</v>
+      </c>
+      <c r="E129" s="1">
+        <v>43728</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A130">
+        <v>53</v>
+      </c>
+      <c r="B130" t="s">
+        <v>10</v>
+      </c>
+      <c r="C130" t="s">
+        <v>5</v>
+      </c>
+      <c r="E130" s="1">
+        <v>43728</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A131">
+        <v>51</v>
+      </c>
+      <c r="B131" t="s">
+        <v>10</v>
+      </c>
+      <c r="C131" t="s">
+        <v>5</v>
+      </c>
+      <c r="D131" t="b">
+        <v>1</v>
+      </c>
+      <c r="E131" s="1">
+        <v>43728</v>
+      </c>
+      <c r="F131" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A132">
+        <v>51</v>
+      </c>
+      <c r="B132" t="s">
+        <v>7</v>
+      </c>
+      <c r="C132" t="s">
+        <v>5</v>
+      </c>
+      <c r="E132" s="1">
+        <v>43728</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A133">
+        <v>49</v>
+      </c>
+      <c r="B133" t="s">
+        <v>10</v>
+      </c>
+      <c r="C133" t="s">
+        <v>5</v>
+      </c>
+      <c r="E133" s="1">
+        <v>43728</v>
+      </c>
+      <c r="F133" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A134">
+        <v>49</v>
+      </c>
+      <c r="B134" t="s">
+        <v>7</v>
+      </c>
+      <c r="C134" t="s">
+        <v>5</v>
+      </c>
+      <c r="E134" s="1">
+        <v>43728</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A135">
+        <v>74</v>
+      </c>
+      <c r="B135" t="s">
+        <v>10</v>
+      </c>
+      <c r="C135" t="s">
+        <v>5</v>
+      </c>
+      <c r="D135" t="b">
+        <v>1</v>
+      </c>
+      <c r="E135" s="1">
+        <v>43728</v>
+      </c>
+      <c r="F135" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/AtCoder_record.xlsx
+++ b/AtCoder_record.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simon\codes\AtCoder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ADD246A-0925-407D-B530-30593224C504}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{399384F5-E6C4-45F3-A299-72D95208DD8A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7170" yWindow="4455" windowWidth="12255" windowHeight="11940" xr2:uid="{9B9A1409-A6B9-4D33-8F83-A064BA4B158C}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="52">
   <si>
     <t>contest</t>
     <phoneticPr fontId="1"/>
@@ -135,10 +135,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>dfs, dag</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>逆元</t>
     <rPh sb="0" eb="2">
       <t>ギャクゲン</t>
@@ -291,32 +287,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ワーシャルフロイド</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>秒ごとに見ればいい、線引くのは実装重すぎるのでやめとけ</t>
-    <rPh sb="0" eb="1">
-      <t>ビョウ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ミ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>セン</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>ヒ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>ジッソウ</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>オモ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>部分文字列</t>
     <rPh sb="0" eb="2">
       <t>ブブン</t>
@@ -439,19 +409,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>必勝条件を考える</t>
-    <rPh sb="0" eb="2">
-      <t>ヒッショウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ジョウケン</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>カンガ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>使わない場合のdp更新し忘れ</t>
     <rPh sb="0" eb="1">
       <t>ツカ</t>
@@ -469,6 +426,39 @@
   </si>
   <si>
     <t>warshall-froyd</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>秒ごとに見ればいい、線引くのは実装重すぎるのでやめとけ。Setprecision!!</t>
+    <rPh sb="0" eb="1">
+      <t>ビョウ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>セン</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ジッソウ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>オモ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>必勝ゲーム</t>
+    <rPh sb="0" eb="2">
+      <t>ヒッショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DAG</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -836,11 +826,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40C233B7-3D4E-4872-A3EB-9A4A81938CC3}">
-  <dimension ref="A1:G135"/>
+  <dimension ref="A1:G141"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A116" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F131" sqref="F131"/>
+      <pane ySplit="1" topLeftCell="A120" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E141" sqref="E141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -860,7 +850,7 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E1" t="s">
         <v>6</v>
@@ -1334,7 +1324,7 @@
         <v>43710</v>
       </c>
       <c r="F31" t="s">
-        <v>18</v>
+        <v>51</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.4">
@@ -1385,7 +1375,7 @@
         <v>43710</v>
       </c>
       <c r="F34" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.4">
@@ -1405,7 +1395,7 @@
         <v>43713</v>
       </c>
       <c r="F35" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.4">
@@ -1425,7 +1415,7 @@
         <v>43714</v>
       </c>
       <c r="F36" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.4">
@@ -1462,7 +1452,7 @@
         <v>43715</v>
       </c>
       <c r="F38" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.4">
@@ -1479,7 +1469,7 @@
         <v>43715</v>
       </c>
       <c r="F39" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.4">
@@ -1591,10 +1581,10 @@
         <v>140</v>
       </c>
       <c r="B47" t="s">
+        <v>23</v>
+      </c>
+      <c r="C47" t="s">
         <v>24</v>
-      </c>
-      <c r="C47" t="s">
-        <v>25</v>
       </c>
       <c r="E47" s="1">
         <v>43716</v>
@@ -1634,7 +1624,7 @@
         <v>16</v>
       </c>
       <c r="G49" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.4">
@@ -1687,16 +1677,16 @@
         <v>10</v>
       </c>
       <c r="C53" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E53" s="1">
         <v>43716</v>
       </c>
       <c r="F53" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G53" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.4">
@@ -1713,7 +1703,7 @@
         <v>43716</v>
       </c>
       <c r="F54" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.4">
@@ -1761,7 +1751,7 @@
         <v>43717</v>
       </c>
       <c r="G57" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.4">
@@ -1800,7 +1790,7 @@
         <v>10</v>
       </c>
       <c r="C60" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D60" t="b">
         <v>1</v>
@@ -1809,7 +1799,7 @@
         <v>43717</v>
       </c>
       <c r="G60" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.4">
@@ -1842,7 +1832,7 @@
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A63">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B63" t="s">
         <v>10</v>
@@ -1850,19 +1840,16 @@
       <c r="C63" t="s">
         <v>5</v>
       </c>
-      <c r="D63" t="b">
-        <v>1</v>
-      </c>
       <c r="E63" s="1">
-        <v>43720</v>
+        <v>43718</v>
       </c>
       <c r="F63" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A64">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B64" t="s">
         <v>10</v>
@@ -1872,9 +1859,6 @@
       </c>
       <c r="E64" s="1">
         <v>43718</v>
-      </c>
-      <c r="F64" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.4">
@@ -1882,7 +1866,7 @@
         <v>90</v>
       </c>
       <c r="B65" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C65" t="s">
         <v>5</v>
@@ -1893,7 +1877,7 @@
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A66">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B66" t="s">
         <v>7</v>
@@ -1907,10 +1891,10 @@
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A67">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B67" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C67" t="s">
         <v>5</v>
@@ -1924,7 +1908,7 @@
         <v>85</v>
       </c>
       <c r="B68" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C68" t="s">
         <v>5</v>
@@ -1935,27 +1919,36 @@
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A69">
-        <v>85</v>
+        <v>108</v>
       </c>
       <c r="B69" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C69" t="s">
         <v>5</v>
+      </c>
+      <c r="D69" t="b">
+        <v>1</v>
       </c>
       <c r="E69" s="1">
         <v>43718</v>
       </c>
+      <c r="F69" t="s">
+        <v>30</v>
+      </c>
+      <c r="G69" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A70">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B70" t="s">
         <v>10</v>
       </c>
       <c r="C70" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="D70" t="b">
         <v>1</v>
@@ -1963,31 +1956,22 @@
       <c r="E70" s="1">
         <v>43718</v>
       </c>
-      <c r="F70" t="s">
-        <v>31</v>
-      </c>
       <c r="G70" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A71">
-        <v>107</v>
+        <v>84</v>
       </c>
       <c r="B71" t="s">
         <v>10</v>
       </c>
       <c r="C71" t="s">
-        <v>34</v>
-      </c>
-      <c r="D71" t="b">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E71" s="1">
         <v>43718</v>
-      </c>
-      <c r="G71" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.4">
@@ -1995,7 +1979,7 @@
         <v>84</v>
       </c>
       <c r="B72" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C72" t="s">
         <v>5</v>
@@ -2006,13 +1990,16 @@
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A73">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B73" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C73" t="s">
         <v>5</v>
+      </c>
+      <c r="D73" t="b">
+        <v>1</v>
       </c>
       <c r="E73" s="1">
         <v>43718</v>
@@ -2020,19 +2007,16 @@
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A74">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B74" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C74" t="s">
         <v>5</v>
       </c>
-      <c r="D74" t="b">
-        <v>1</v>
-      </c>
       <c r="E74" s="1">
-        <v>43718</v>
+        <v>43719</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.4">
@@ -2040,7 +2024,7 @@
         <v>82</v>
       </c>
       <c r="B75" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C75" t="s">
         <v>5</v>
@@ -2048,10 +2032,16 @@
       <c r="E75" s="1">
         <v>43719</v>
       </c>
+      <c r="F75" t="s">
+        <v>34</v>
+      </c>
+      <c r="G75" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A76">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B76" t="s">
         <v>10</v>
@@ -2061,12 +2051,6 @@
       </c>
       <c r="E76" s="1">
         <v>43719</v>
-      </c>
-      <c r="F76" t="s">
-        <v>35</v>
-      </c>
-      <c r="G76" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.4">
@@ -2074,7 +2058,7 @@
         <v>81</v>
       </c>
       <c r="B77" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C77" t="s">
         <v>5</v>
@@ -2085,7 +2069,7 @@
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A78">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B78" t="s">
         <v>7</v>
@@ -2102,7 +2086,7 @@
         <v>79</v>
       </c>
       <c r="B79" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C79" t="s">
         <v>5</v>
@@ -2110,13 +2094,16 @@
       <c r="E79" s="1">
         <v>43719</v>
       </c>
+      <c r="F79" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A80">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B80" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C80" t="s">
         <v>5</v>
@@ -2124,16 +2111,13 @@
       <c r="E80" s="1">
         <v>43719</v>
       </c>
-      <c r="F80" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A81">
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C81" t="s">
         <v>5</v>
@@ -2142,12 +2126,12 @@
         <v>43719</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A82">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B82" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C82" t="s">
         <v>5</v>
@@ -2156,12 +2140,12 @@
         <v>43719</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A83">
         <v>78</v>
       </c>
       <c r="B83" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C83" t="s">
         <v>5</v>
@@ -2170,12 +2154,12 @@
         <v>43719</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A84">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B84" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C84" t="s">
         <v>5</v>
@@ -2184,12 +2168,12 @@
         <v>43719</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A85">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B85" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C85" t="s">
         <v>5</v>
@@ -2198,26 +2182,23 @@
         <v>43719</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A86">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B86" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C86" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="E86" s="1">
         <v>43719</v>
       </c>
-      <c r="G86" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A87">
-        <v>71</v>
+        <v>87</v>
       </c>
       <c r="B87" t="s">
         <v>10</v>
@@ -2225,30 +2206,36 @@
       <c r="C87" t="s">
         <v>5</v>
       </c>
+      <c r="D87" t="b">
+        <v>1</v>
+      </c>
       <c r="E87" s="1">
-        <v>43719</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.4">
+        <v>43720</v>
+      </c>
+      <c r="F87" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A88">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B88" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C88" t="s">
         <v>5</v>
       </c>
       <c r="E88" s="1">
-        <v>43719</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.4">
+        <v>43720</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A89">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B89" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C89" t="s">
         <v>5</v>
@@ -2257,12 +2244,12 @@
         <v>43720</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A90">
         <v>69</v>
       </c>
       <c r="B90" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C90" t="s">
         <v>5</v>
@@ -2271,46 +2258,46 @@
         <v>43720</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A91">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B91" t="s">
         <v>10</v>
       </c>
       <c r="C91" t="s">
         <v>5</v>
+      </c>
+      <c r="D91" t="b">
+        <v>1</v>
       </c>
       <c r="E91" s="1">
         <v>43720</v>
       </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="F91" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A92">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B92" t="s">
         <v>10</v>
       </c>
       <c r="C92" t="s">
         <v>5</v>
-      </c>
-      <c r="D92" t="b">
-        <v>1</v>
       </c>
       <c r="E92" s="1">
         <v>43720</v>
       </c>
-      <c r="F92" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A93">
         <v>70</v>
       </c>
       <c r="B93" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C93" t="s">
         <v>5</v>
@@ -2319,26 +2306,26 @@
         <v>43720</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A94">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B94" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C94" t="s">
         <v>5</v>
       </c>
       <c r="E94" s="1">
-        <v>43720</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.4">
+        <v>43721</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A95">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B95" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C95" t="s">
         <v>5</v>
@@ -2347,12 +2334,12 @@
         <v>43721</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A96">
         <v>67</v>
       </c>
       <c r="B96" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C96" t="s">
         <v>5</v>
@@ -2363,10 +2350,10 @@
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A97">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B97" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C97" t="s">
         <v>5</v>
@@ -2380,7 +2367,7 @@
         <v>72</v>
       </c>
       <c r="B98" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C98" t="s">
         <v>5</v>
@@ -2391,21 +2378,21 @@
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A99">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B99" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C99" t="s">
         <v>5</v>
       </c>
       <c r="E99" s="1">
-        <v>43721</v>
+        <v>43722</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A100">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="B100" t="s">
         <v>7</v>
@@ -2414,7 +2401,7 @@
         <v>5</v>
       </c>
       <c r="E100" s="1">
-        <v>43722</v>
+        <v>43725</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.4">
@@ -2422,7 +2409,7 @@
         <v>65</v>
       </c>
       <c r="B101" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C101" t="s">
         <v>5</v>
@@ -2430,13 +2417,16 @@
       <c r="E101" s="1">
         <v>43725</v>
       </c>
+      <c r="F101" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A102">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="B102" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C102" t="s">
         <v>5</v>
@@ -2445,7 +2435,7 @@
         <v>43725</v>
       </c>
       <c r="F102" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.4">
@@ -2453,27 +2443,27 @@
         <v>75</v>
       </c>
       <c r="B103" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C103" t="s">
-        <v>5</v>
+        <v>24</v>
+      </c>
+      <c r="D103" t="b">
+        <v>1</v>
       </c>
       <c r="E103" s="1">
         <v>43725</v>
       </c>
-      <c r="F103" t="s">
-        <v>47</v>
-      </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A104">
-        <v>75</v>
+        <v>141</v>
       </c>
       <c r="B104" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C104" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="D104" t="b">
         <v>1</v>
@@ -2487,13 +2477,10 @@
         <v>141</v>
       </c>
       <c r="B105" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C105" t="s">
         <v>5</v>
-      </c>
-      <c r="D105" t="b">
-        <v>1</v>
       </c>
       <c r="E105" s="1">
         <v>43725</v>
@@ -2504,7 +2491,7 @@
         <v>141</v>
       </c>
       <c r="B106" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C106" t="s">
         <v>5</v>
@@ -2515,16 +2502,16 @@
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A107">
-        <v>141</v>
+        <v>64</v>
       </c>
       <c r="B107" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C107" t="s">
         <v>5</v>
       </c>
       <c r="E107" s="1">
-        <v>43725</v>
+        <v>43726</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.4">
@@ -2532,7 +2519,7 @@
         <v>64</v>
       </c>
       <c r="B108" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C108" t="s">
         <v>5</v>
@@ -2543,16 +2530,22 @@
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A109">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B109" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C109" t="s">
         <v>5</v>
+      </c>
+      <c r="D109" t="b">
+        <v>1</v>
       </c>
       <c r="E109" s="1">
         <v>43726</v>
+      </c>
+      <c r="F109" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.4">
@@ -2560,27 +2553,21 @@
         <v>63</v>
       </c>
       <c r="B110" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C110" t="s">
         <v>5</v>
-      </c>
-      <c r="D110" t="b">
-        <v>1</v>
       </c>
       <c r="E110" s="1">
         <v>43726</v>
       </c>
-      <c r="F110" t="s">
-        <v>44</v>
-      </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A111">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B111" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C111" t="s">
         <v>5</v>
@@ -2594,7 +2581,7 @@
         <v>62</v>
       </c>
       <c r="B112" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C112" t="s">
         <v>5</v>
@@ -2605,7 +2592,7 @@
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A113">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B113" t="s">
         <v>7</v>
@@ -2622,36 +2609,36 @@
         <v>60</v>
       </c>
       <c r="B114" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C114" t="s">
         <v>5</v>
+      </c>
+      <c r="D114" t="b">
+        <v>1</v>
       </c>
       <c r="E114" s="1">
         <v>43726</v>
       </c>
+      <c r="F114" t="s">
+        <v>42</v>
+      </c>
+      <c r="G114" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A115">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B115" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C115" t="s">
         <v>5</v>
-      </c>
-      <c r="D115" t="b">
-        <v>1</v>
       </c>
       <c r="E115" s="1">
         <v>43726</v>
-      </c>
-      <c r="F115" t="s">
-        <v>45</v>
-      </c>
-      <c r="G115" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.4">
@@ -2659,36 +2646,36 @@
         <v>61</v>
       </c>
       <c r="B116" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C116" t="s">
-        <v>5</v>
+        <v>24</v>
+      </c>
+      <c r="D116" t="b">
+        <v>1</v>
       </c>
       <c r="E116" s="1">
         <v>43726</v>
       </c>
+      <c r="F116" t="s">
+        <v>46</v>
+      </c>
+      <c r="G116" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A117">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B117" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C117" t="s">
-        <v>25</v>
-      </c>
-      <c r="D117" t="b">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E117" s="1">
-        <v>43726</v>
-      </c>
-      <c r="F117" t="s">
-        <v>49</v>
-      </c>
-      <c r="G117" t="s">
-        <v>48</v>
+        <v>43727</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.4">
@@ -2696,7 +2683,7 @@
         <v>59</v>
       </c>
       <c r="B118" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C118" t="s">
         <v>5</v>
@@ -2704,22 +2691,22 @@
       <c r="E118" s="1">
         <v>43727</v>
       </c>
+      <c r="F118" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A119">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B119" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C119" t="s">
         <v>5</v>
       </c>
       <c r="E119" s="1">
         <v>43727</v>
-      </c>
-      <c r="G119" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.4">
@@ -2727,7 +2714,7 @@
         <v>58</v>
       </c>
       <c r="B120" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C120" t="s">
         <v>5</v>
@@ -2738,36 +2725,36 @@
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A121">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B121" t="s">
         <v>10</v>
       </c>
-      <c r="C121" t="s">
-        <v>5</v>
+      <c r="D121" t="b">
+        <v>1</v>
       </c>
       <c r="E121" s="1">
         <v>43727</v>
       </c>
+      <c r="F121" t="s">
+        <v>8</v>
+      </c>
+      <c r="G121" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A122">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B122" t="s">
-        <v>10</v>
-      </c>
-      <c r="D122" t="b">
-        <v>1</v>
+        <v>7</v>
+      </c>
+      <c r="C122" t="s">
+        <v>5</v>
       </c>
       <c r="E122" s="1">
         <v>43727</v>
-      </c>
-      <c r="F122" t="s">
-        <v>8</v>
-      </c>
-      <c r="G122" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.4">
@@ -2775,7 +2762,7 @@
         <v>57</v>
       </c>
       <c r="B123" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C123" t="s">
         <v>5</v>
@@ -2786,7 +2773,7 @@
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A124">
-        <v>57</v>
+        <v>76</v>
       </c>
       <c r="B124" t="s">
         <v>10</v>
@@ -2795,7 +2782,10 @@
         <v>5</v>
       </c>
       <c r="E124" s="1">
-        <v>43727</v>
+        <v>43728</v>
+      </c>
+      <c r="G124" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.4">
@@ -2899,7 +2889,7 @@
         <v>43728</v>
       </c>
       <c r="F131" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.4">
@@ -2930,7 +2920,7 @@
         <v>43728</v>
       </c>
       <c r="F133" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.4">
@@ -2964,11 +2954,102 @@
         <v>43728</v>
       </c>
       <c r="F135" t="s">
-        <v>52</v>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A136">
+        <v>48</v>
+      </c>
+      <c r="B136" t="s">
+        <v>10</v>
+      </c>
+      <c r="C136" t="s">
+        <v>5</v>
+      </c>
+      <c r="E136" s="1">
+        <v>43728</v>
+      </c>
+      <c r="F136" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A137">
+        <v>48</v>
+      </c>
+      <c r="B137" t="s">
+        <v>7</v>
+      </c>
+      <c r="C137" t="s">
+        <v>5</v>
+      </c>
+      <c r="E137" s="1">
+        <v>43728</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A138">
+        <v>47</v>
+      </c>
+      <c r="B138" t="s">
+        <v>10</v>
+      </c>
+      <c r="C138" t="s">
+        <v>5</v>
+      </c>
+      <c r="E138" s="1">
+        <v>43729</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A139">
+        <v>47</v>
+      </c>
+      <c r="B139" t="s">
+        <v>7</v>
+      </c>
+      <c r="C139" t="s">
+        <v>5</v>
+      </c>
+      <c r="E139" s="1">
+        <v>43729</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A140">
+        <v>46</v>
+      </c>
+      <c r="B140" t="s">
+        <v>10</v>
+      </c>
+      <c r="C140" t="s">
+        <v>5</v>
+      </c>
+      <c r="E140" s="1">
+        <v>43729</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A141">
+        <v>46</v>
+      </c>
+      <c r="B141" t="s">
+        <v>7</v>
+      </c>
+      <c r="C141" t="s">
+        <v>5</v>
+      </c>
+      <c r="E141" s="1">
+        <v>43729</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G1" xr:uid="{B044DDE4-FD9B-4332-A4FA-1E362B47FB20}"/>
+  <autoFilter ref="A1:G1" xr:uid="{B044DDE4-FD9B-4332-A4FA-1E362B47FB20}">
+    <sortState ref="A2:G135">
+      <sortCondition ref="E1"/>
+    </sortState>
+  </autoFilter>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C1048576" xr:uid="{73954FCB-6CAE-4348-A109-7122C619CB33}">
@@ -2992,12 +3073,12 @@
   <sheetData>
     <row r="2" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/AtCoder_record.xlsx
+++ b/AtCoder_record.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simon\codes\AtCoder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{399384F5-E6C4-45F3-A299-72D95208DD8A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03FF469C-5319-4390-AAF5-DA601166B3E0}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7170" yWindow="4455" windowWidth="12255" windowHeight="11940" xr2:uid="{9B9A1409-A6B9-4D33-8F83-A064BA4B158C}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="52">
   <si>
     <t>contest</t>
     <phoneticPr fontId="1"/>
@@ -216,13 +216,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>バグが取れない</t>
-    <rPh sb="3" eb="4">
-      <t>ト</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>メモ化</t>
     <rPh sb="2" eb="3">
       <t>カ</t>
@@ -377,38 +370,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>コスト正の最大化問題はコスト負の最小化問題</t>
-    <rPh sb="3" eb="4">
-      <t>セイ</t>
-    </rPh>
-    <rPh sb="5" eb="8">
-      <t>サイダイカ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>モンダイ</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>フ</t>
-    </rPh>
-    <rPh sb="16" eb="19">
-      <t>サイショウカ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>モンダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>最小木</t>
-    <rPh sb="0" eb="2">
-      <t>サイショウ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>キ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>使わない場合のdp更新し忘れ</t>
     <rPh sb="0" eb="1">
       <t>ツカ</t>
@@ -459,6 +420,51 @@
   </si>
   <si>
     <t>DAG</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>むずーーい</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>bellman-ford</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コスト正の最大化問題はコスト負の最小化問題　bellman-fordの負経路検出はどれでも検出したらtrueを返してしまう</t>
+    <rPh sb="3" eb="4">
+      <t>セイ</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>サイダイカ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>モンダイ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>フ</t>
+    </rPh>
+    <rPh sb="16" eb="19">
+      <t>サイショウカ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>モンダイ</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>フ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ケイロ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>ケンシュツ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>ケンシュツ</t>
+    </rPh>
+    <rPh sb="55" eb="56">
+      <t>カエ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -826,11 +832,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40C233B7-3D4E-4872-A3EB-9A4A81938CC3}">
-  <dimension ref="A1:G141"/>
+  <dimension ref="A1:G142"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A120" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E141" sqref="E141"/>
+      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E53" sqref="E53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -850,7 +856,7 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E1" t="s">
         <v>6</v>
@@ -1324,7 +1330,7 @@
         <v>43710</v>
       </c>
       <c r="F31" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.4">
@@ -1677,15 +1683,12 @@
         <v>10</v>
       </c>
       <c r="C53" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="E53" s="1">
-        <v>43716</v>
+        <v>43730</v>
       </c>
       <c r="F53" t="s">
-        <v>28</v>
-      </c>
-      <c r="G53" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1790,16 +1793,16 @@
         <v>10</v>
       </c>
       <c r="C60" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="D60" t="b">
         <v>1</v>
       </c>
       <c r="E60" s="1">
-        <v>43717</v>
+        <v>43729</v>
       </c>
       <c r="G60" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.4">
@@ -1844,7 +1847,7 @@
         <v>43718</v>
       </c>
       <c r="F63" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.4">
@@ -1934,10 +1937,10 @@
         <v>43718</v>
       </c>
       <c r="F69" t="s">
+        <v>29</v>
+      </c>
+      <c r="G69" t="s">
         <v>30</v>
-      </c>
-      <c r="G69" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.4">
@@ -1948,7 +1951,7 @@
         <v>10</v>
       </c>
       <c r="C70" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D70" t="b">
         <v>1</v>
@@ -1957,7 +1960,7 @@
         <v>43718</v>
       </c>
       <c r="G70" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.4">
@@ -2033,10 +2036,10 @@
         <v>43719</v>
       </c>
       <c r="F75" t="s">
+        <v>33</v>
+      </c>
+      <c r="G75" t="s">
         <v>34</v>
-      </c>
-      <c r="G75" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.4">
@@ -2095,7 +2098,7 @@
         <v>43719</v>
       </c>
       <c r="F79" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.4">
@@ -2275,7 +2278,7 @@
         <v>43720</v>
       </c>
       <c r="F91" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.4">
@@ -2418,7 +2421,7 @@
         <v>43725</v>
       </c>
       <c r="F101" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.4">
@@ -2435,7 +2438,7 @@
         <v>43725</v>
       </c>
       <c r="F102" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.4">
@@ -2545,7 +2548,7 @@
         <v>43726</v>
       </c>
       <c r="F109" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.4">
@@ -2621,10 +2624,10 @@
         <v>43726</v>
       </c>
       <c r="F114" t="s">
+        <v>41</v>
+      </c>
+      <c r="G114" t="s">
         <v>42</v>
-      </c>
-      <c r="G114" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.4">
@@ -2649,19 +2652,19 @@
         <v>10</v>
       </c>
       <c r="C116" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="D116" t="b">
         <v>1</v>
       </c>
       <c r="E116" s="1">
-        <v>43726</v>
+        <v>43730</v>
       </c>
       <c r="F116" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="G116" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.4">
@@ -2692,7 +2695,7 @@
         <v>43727</v>
       </c>
       <c r="F118" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.4">
@@ -2740,7 +2743,7 @@
         <v>8</v>
       </c>
       <c r="G121" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.4">
@@ -2785,7 +2788,7 @@
         <v>43728</v>
       </c>
       <c r="G124" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.4">
@@ -2889,7 +2892,7 @@
         <v>43728</v>
       </c>
       <c r="F131" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.4">
@@ -2954,7 +2957,7 @@
         <v>43728</v>
       </c>
       <c r="F135" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.4">
@@ -2971,7 +2974,7 @@
         <v>43728</v>
       </c>
       <c r="F136" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.4">
@@ -3042,6 +3045,26 @@
       </c>
       <c r="E141" s="1">
         <v>43729</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A142">
+        <v>86</v>
+      </c>
+      <c r="B142" t="s">
+        <v>10</v>
+      </c>
+      <c r="C142" t="s">
+        <v>5</v>
+      </c>
+      <c r="D142" t="b">
+        <v>1</v>
+      </c>
+      <c r="E142" s="1">
+        <v>43729</v>
+      </c>
+      <c r="F142" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -3073,12 +3096,12 @@
   <sheetData>
     <row r="2" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/AtCoder_record.xlsx
+++ b/AtCoder_record.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simon\codes\AtCoder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C721C6F-CA6D-4DC2-A801-D805AF8F7583}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D794EDEF-D25C-4B3E-B862-319D401EBED4}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7170" yWindow="4455" windowWidth="12255" windowHeight="11940" activeTab="1" xr2:uid="{9B9A1409-A6B9-4D33-8F83-A064BA4B158C}"/>
+    <workbookView xWindow="2595" yWindow="1905" windowWidth="12255" windowHeight="11940" activeTab="2" xr2:uid="{9B9A1409-A6B9-4D33-8F83-A064BA4B158C}"/>
   </bookViews>
   <sheets>
     <sheet name="TODO" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="46">
   <si>
     <t>contest</t>
     <phoneticPr fontId="1"/>
@@ -388,6 +388,37 @@
   </si>
   <si>
     <t>UnionFind</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>tree DP</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>累積和</t>
+    <rPh sb="0" eb="2">
+      <t>ルイセキ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>最短経路</t>
+    <rPh sb="0" eb="2">
+      <t>サイタン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ケイロ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>二分探索</t>
+    <rPh sb="0" eb="4">
+      <t>ニブンタンサク</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -445,18 +476,18 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="6">
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFC000"/>
+          <bgColor rgb="FF92D050"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FF92D050"/>
+          <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -485,34 +516,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
         </patternFill>
       </fill>
     </dxf>
@@ -847,11 +850,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF1CBC1D-CB3D-4289-BA74-9600CAB45632}">
-  <dimension ref="A1:F75"/>
+  <dimension ref="A1:F76"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A58" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E76" sqref="E76"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D77" sqref="D77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1741,6 +1744,23 @@
         <v>14</v>
       </c>
     </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A76">
+        <v>35</v>
+      </c>
+      <c r="B76" t="s">
+        <v>5</v>
+      </c>
+      <c r="C76" s="1">
+        <v>43733</v>
+      </c>
+      <c r="D76" t="b">
+        <v>1</v>
+      </c>
+      <c r="E76" t="s">
+        <v>43</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:F3" xr:uid="{EDF828CA-D02B-4772-B052-7CCEC311B6C8}">
     <sortState ref="A2:F72">
@@ -1749,10 +1769,10 @@
   </autoFilter>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
       <formula>"WA"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
       <formula>"AC"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1767,11 +1787,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DD4F28B-BDE7-4DDA-A1A4-081797C8432F}">
-  <dimension ref="A1:F77"/>
+  <dimension ref="A1:F80"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D77" sqref="D77"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E81" sqref="E81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2751,6 +2771,51 @@
         <v>41</v>
       </c>
     </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A78">
+        <v>36</v>
+      </c>
+      <c r="B78" t="s">
+        <v>5</v>
+      </c>
+      <c r="C78" s="1">
+        <v>43733</v>
+      </c>
+      <c r="E78" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A79">
+        <v>37</v>
+      </c>
+      <c r="B79" t="s">
+        <v>5</v>
+      </c>
+      <c r="C79" s="1">
+        <v>43733</v>
+      </c>
+      <c r="E79" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A80">
+        <v>34</v>
+      </c>
+      <c r="B80" t="s">
+        <v>5</v>
+      </c>
+      <c r="C80" s="1">
+        <v>43733</v>
+      </c>
+      <c r="D80" t="b">
+        <v>1</v>
+      </c>
+      <c r="E80" t="s">
+        <v>45</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:F74" xr:uid="{7ACCF93B-ECB5-4549-90E8-0D5590BFF3B1}">
     <sortState ref="A2:F74">
@@ -2759,10 +2824,10 @@
   </autoFilter>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="cellIs" dxfId="9" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
       <formula>"AC"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>"WA"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3309,10 +3374,10 @@
   </autoFilter>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"WA"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
       <formula>"AC"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/AtCoder_record.xlsx
+++ b/AtCoder_record.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simon\codes\AtCoder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D794EDEF-D25C-4B3E-B862-319D401EBED4}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAA32C34-9C5C-45A5-BE9D-C0218E2C5AA1}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2595" yWindow="1905" windowWidth="12255" windowHeight="11940" activeTab="2" xr2:uid="{9B9A1409-A6B9-4D33-8F83-A064BA4B158C}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="47">
   <si>
     <t>contest</t>
     <phoneticPr fontId="1"/>
@@ -383,10 +383,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>トポロジカルソート</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>UnionFind</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -418,6 +414,20 @@
     <t>二分探索</t>
     <rPh sb="0" eb="4">
       <t>ニブンタンサク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>トポロジカルソート、桁dp</t>
+    <rPh sb="10" eb="11">
+      <t>ケタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>dp復元</t>
+    <rPh sb="2" eb="4">
+      <t>フクゲン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1758,7 +1768,7 @@
         <v>1</v>
       </c>
       <c r="E76" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -1787,11 +1797,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DD4F28B-BDE7-4DDA-A1A4-081797C8432F}">
-  <dimension ref="A1:F80"/>
+  <dimension ref="A1:F81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E81" sqref="E81"/>
+      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E82" sqref="E82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2754,7 +2764,7 @@
         <v>1</v>
       </c>
       <c r="E76" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.4">
@@ -2768,7 +2778,7 @@
         <v>43732</v>
       </c>
       <c r="E77" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.4">
@@ -2782,7 +2792,7 @@
         <v>43733</v>
       </c>
       <c r="E78" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.4">
@@ -2796,7 +2806,7 @@
         <v>43733</v>
       </c>
       <c r="E79" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.4">
@@ -2813,7 +2823,24 @@
         <v>1</v>
       </c>
       <c r="E80" t="s">
-        <v>45</v>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A81">
+        <v>118</v>
+      </c>
+      <c r="B81" t="s">
+        <v>5</v>
+      </c>
+      <c r="C81" s="1">
+        <v>43734</v>
+      </c>
+      <c r="D81" t="b">
+        <v>1</v>
+      </c>
+      <c r="E81" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -2837,6 +2864,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/AtCoder_record.xlsx
+++ b/AtCoder_record.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simon\codes\AtCoder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAA32C34-9C5C-45A5-BE9D-C0218E2C5AA1}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85CC9B67-B494-42CB-A9FD-408A744AC028}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2595" yWindow="1905" windowWidth="12255" windowHeight="11940" activeTab="2" xr2:uid="{9B9A1409-A6B9-4D33-8F83-A064BA4B158C}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="50">
   <si>
     <t>contest</t>
     <phoneticPr fontId="1"/>
@@ -429,6 +429,24 @@
     <rPh sb="2" eb="4">
       <t>フクゲン</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>二次元累積和</t>
+    <rPh sb="0" eb="6">
+      <t>ニジゲンルイセキワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>貪欲</t>
+    <rPh sb="0" eb="2">
+      <t>ドンヨク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>O( N/1 + N/2 + ... + N/N ) = O( N logN )</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1797,11 +1815,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DD4F28B-BDE7-4DDA-A1A4-081797C8432F}">
-  <dimension ref="A1:F81"/>
+  <dimension ref="A1:F87"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E82" sqref="E82"/>
+      <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F88" sqref="F88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2826,7 +2844,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A81">
         <v>118</v>
       </c>
@@ -2841,6 +2859,90 @@
       </c>
       <c r="E81" t="s">
         <v>46</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A82">
+        <v>75</v>
+      </c>
+      <c r="B82" t="s">
+        <v>5</v>
+      </c>
+      <c r="C82" s="1">
+        <v>43734</v>
+      </c>
+      <c r="E82" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A83">
+        <v>138</v>
+      </c>
+      <c r="B83" t="s">
+        <v>5</v>
+      </c>
+      <c r="C83" s="1">
+        <v>43734</v>
+      </c>
+      <c r="E83" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A84">
+        <v>137</v>
+      </c>
+      <c r="B84" t="s">
+        <v>5</v>
+      </c>
+      <c r="C84" s="1">
+        <v>43734</v>
+      </c>
+      <c r="E84" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A85">
+        <v>136</v>
+      </c>
+      <c r="B85" t="s">
+        <v>5</v>
+      </c>
+      <c r="C85" s="1">
+        <v>43734</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A86">
+        <v>135</v>
+      </c>
+      <c r="B86" t="s">
+        <v>5</v>
+      </c>
+      <c r="C86" s="1">
+        <v>43734</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A87">
+        <v>134</v>
+      </c>
+      <c r="B87" t="s">
+        <v>5</v>
+      </c>
+      <c r="C87" s="1">
+        <v>43734</v>
+      </c>
+      <c r="D87" t="b">
+        <v>1</v>
+      </c>
+      <c r="E87" t="s">
+        <v>35</v>
+      </c>
+      <c r="F87" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/AtCoder_record.xlsx
+++ b/AtCoder_record.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simon\codes\AtCoder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85CC9B67-B494-42CB-A9FD-408A744AC028}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A115FD79-D4E5-43E9-9490-AD1E6CA08D49}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2595" yWindow="1905" windowWidth="12255" windowHeight="11940" activeTab="2" xr2:uid="{9B9A1409-A6B9-4D33-8F83-A064BA4B158C}"/>
+    <workbookView xWindow="10890" yWindow="5700" windowWidth="12255" windowHeight="11940" activeTab="3" xr2:uid="{9B9A1409-A6B9-4D33-8F83-A064BA4B158C}"/>
   </bookViews>
   <sheets>
     <sheet name="TODO" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'ABC-C'!$A$1:$F$3</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'ABC-D'!$A$1:$F$74</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'ABC-D'!$A$1:$F$73</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'ABC-E, F'!$A$1:$G$145</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="53">
   <si>
     <t>contest</t>
     <phoneticPr fontId="1"/>
@@ -447,6 +447,39 @@
   </si>
   <si>
     <t>O( N/1 + N/2 + ... + N/N ) = O( N logN )</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>event</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>尺取り法</t>
+    <rPh sb="0" eb="2">
+      <t>シャクト</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>multisetの構築は遅い。Vectorを構築してソートした方が速い</t>
+    <rPh sb="9" eb="11">
+      <t>コウチク</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>オソ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>コウチク</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>ホウ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>ハヤ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -504,7 +537,7 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="8">
     <dxf>
       <fill>
         <patternFill>
@@ -522,6 +555,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
@@ -530,6 +570,13 @@
       <fill>
         <patternFill>
           <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1797,10 +1844,10 @@
   </autoFilter>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="1" operator="equal">
       <formula>"WA"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
       <formula>"AC"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1815,11 +1862,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DD4F28B-BDE7-4DDA-A1A4-081797C8432F}">
-  <dimension ref="A1:F87"/>
+  <dimension ref="A1:F92"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F88" sqref="F88"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A83" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A93" sqref="A93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2397,32 +2444,35 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A47">
-        <v>75</v>
+        <v>141</v>
       </c>
       <c r="B47" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="C47" s="1">
         <v>43725</v>
       </c>
-      <c r="D47" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A48">
-        <v>141</v>
+        <v>60</v>
       </c>
       <c r="B48" t="s">
         <v>5</v>
       </c>
       <c r="C48" s="1">
-        <v>43725</v>
+        <v>43726</v>
+      </c>
+      <c r="D48" t="b">
+        <v>1</v>
+      </c>
+      <c r="F48" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A49">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B49" t="s">
         <v>5</v>
@@ -2430,16 +2480,10 @@
       <c r="C49" s="1">
         <v>43726</v>
       </c>
-      <c r="D49" t="b">
-        <v>1</v>
-      </c>
-      <c r="F49" t="s">
-        <v>25</v>
-      </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A50">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B50" t="s">
         <v>5</v>
@@ -2447,10 +2491,13 @@
       <c r="C50" s="1">
         <v>43726</v>
       </c>
+      <c r="D50" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A51">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B51" t="s">
         <v>5</v>
@@ -2458,24 +2505,27 @@
       <c r="C51" s="1">
         <v>43726</v>
       </c>
-      <c r="D51" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A52">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="B52" t="s">
         <v>5</v>
       </c>
       <c r="C52" s="1">
-        <v>43726</v>
+        <v>43727</v>
+      </c>
+      <c r="D52" t="b">
+        <v>1</v>
+      </c>
+      <c r="F52" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A53">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B53" t="s">
         <v>5</v>
@@ -2483,16 +2533,10 @@
       <c r="C53" s="1">
         <v>43727</v>
       </c>
-      <c r="D53" t="b">
-        <v>1</v>
-      </c>
-      <c r="F53" t="s">
-        <v>27</v>
-      </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A54">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B54" t="s">
         <v>5</v>
@@ -2503,7 +2547,7 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A55">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B55" t="s">
         <v>5</v>
@@ -2514,18 +2558,18 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A56">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="B56" t="s">
         <v>5</v>
       </c>
       <c r="C56" s="1">
-        <v>43727</v>
+        <v>43728</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A57">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B57" t="s">
         <v>5</v>
@@ -2536,7 +2580,7 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A58">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B58" t="s">
         <v>5</v>
@@ -2544,10 +2588,13 @@
       <c r="C58" s="1">
         <v>43728</v>
       </c>
+      <c r="D58" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A59">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B59" t="s">
         <v>5</v>
@@ -2555,13 +2602,10 @@
       <c r="C59" s="1">
         <v>43728</v>
       </c>
-      <c r="D59" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A60">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B60" t="s">
         <v>5</v>
@@ -2572,7 +2616,7 @@
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A61">
-        <v>56</v>
+        <v>74</v>
       </c>
       <c r="B61" t="s">
         <v>5</v>
@@ -2580,10 +2624,13 @@
       <c r="C61" s="1">
         <v>43728</v>
       </c>
+      <c r="D61" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A62">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B62" t="s">
         <v>5</v>
@@ -2591,13 +2638,13 @@
       <c r="C62" s="1">
         <v>43728</v>
       </c>
-      <c r="D62" t="b">
-        <v>1</v>
+      <c r="F62" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A63">
-        <v>76</v>
+        <v>128</v>
       </c>
       <c r="B63" t="s">
         <v>5</v>
@@ -2605,24 +2652,21 @@
       <c r="C63" s="1">
         <v>43728</v>
       </c>
-      <c r="F63" t="s">
-        <v>28</v>
-      </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A64">
-        <v>128</v>
+        <v>45</v>
       </c>
       <c r="B64" t="s">
         <v>5</v>
       </c>
       <c r="C64" s="1">
-        <v>43728</v>
+        <v>43729</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A65">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B65" t="s">
         <v>5</v>
@@ -2633,7 +2677,7 @@
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A66">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B66" t="s">
         <v>5</v>
@@ -2644,7 +2688,7 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A67">
-        <v>47</v>
+        <v>86</v>
       </c>
       <c r="B67" t="s">
         <v>5</v>
@@ -2652,10 +2696,13 @@
       <c r="C67" s="1">
         <v>43729</v>
       </c>
+      <c r="D67" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A68">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B68" t="s">
         <v>5</v>
@@ -2666,27 +2713,30 @@
       <c r="D68" t="b">
         <v>1</v>
       </c>
+      <c r="F68" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A69">
-        <v>91</v>
+        <v>61</v>
       </c>
       <c r="B69" t="s">
         <v>5</v>
       </c>
       <c r="C69" s="1">
-        <v>43729</v>
+        <v>43730</v>
       </c>
       <c r="D69" t="b">
         <v>1</v>
       </c>
       <c r="F69" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A70">
-        <v>61</v>
+        <v>95</v>
       </c>
       <c r="B70" t="s">
         <v>5</v>
@@ -2694,27 +2744,24 @@
       <c r="C70" s="1">
         <v>43730</v>
       </c>
-      <c r="D70" t="b">
-        <v>1</v>
-      </c>
-      <c r="F70" t="s">
-        <v>31</v>
-      </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A71">
-        <v>95</v>
+        <v>42</v>
       </c>
       <c r="B71" t="s">
         <v>5</v>
       </c>
       <c r="C71" s="1">
-        <v>43730</v>
+        <v>43731</v>
+      </c>
+      <c r="E71" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A72">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B72" t="s">
         <v>5</v>
@@ -2723,12 +2770,12 @@
         <v>43731</v>
       </c>
       <c r="E72" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A73">
-        <v>43</v>
+        <v>107</v>
       </c>
       <c r="B73" t="s">
         <v>5</v>
@@ -2736,13 +2783,16 @@
       <c r="C73" s="1">
         <v>43731</v>
       </c>
+      <c r="D73" t="b">
+        <v>1</v>
+      </c>
       <c r="E73" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A74">
-        <v>107</v>
+        <v>39</v>
       </c>
       <c r="B74" t="s">
         <v>5</v>
@@ -2750,27 +2800,27 @@
       <c r="C74" s="1">
         <v>43731</v>
       </c>
-      <c r="D74" t="b">
-        <v>1</v>
-      </c>
-      <c r="E74" t="s">
-        <v>39</v>
-      </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A75">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B75" t="s">
         <v>5</v>
       </c>
       <c r="C75" s="1">
-        <v>43731</v>
+        <v>43732</v>
+      </c>
+      <c r="D75" t="b">
+        <v>1</v>
+      </c>
+      <c r="E75" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A76">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B76" t="s">
         <v>5</v>
@@ -2778,30 +2828,27 @@
       <c r="C76" s="1">
         <v>43732</v>
       </c>
-      <c r="D76" t="b">
-        <v>1</v>
-      </c>
       <c r="E76" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A77">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B77" t="s">
         <v>5</v>
       </c>
       <c r="C77" s="1">
-        <v>43732</v>
+        <v>43733</v>
       </c>
       <c r="E77" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A78">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B78" t="s">
         <v>5</v>
@@ -2810,12 +2857,12 @@
         <v>43733</v>
       </c>
       <c r="E78" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A79">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B79" t="s">
         <v>5</v>
@@ -2823,30 +2870,33 @@
       <c r="C79" s="1">
         <v>43733</v>
       </c>
+      <c r="D79" t="b">
+        <v>1</v>
+      </c>
       <c r="E79" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A80">
-        <v>34</v>
+        <v>118</v>
       </c>
       <c r="B80" t="s">
         <v>5</v>
       </c>
       <c r="C80" s="1">
-        <v>43733</v>
+        <v>43734</v>
       </c>
       <c r="D80" t="b">
         <v>1</v>
       </c>
       <c r="E80" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A81">
-        <v>118</v>
+        <v>75</v>
       </c>
       <c r="B81" t="s">
         <v>5</v>
@@ -2854,16 +2904,13 @@
       <c r="C81" s="1">
         <v>43734</v>
       </c>
-      <c r="D81" t="b">
-        <v>1</v>
-      </c>
       <c r="E81" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A82">
-        <v>75</v>
+        <v>138</v>
       </c>
       <c r="B82" t="s">
         <v>5</v>
@@ -2872,12 +2919,12 @@
         <v>43734</v>
       </c>
       <c r="E82" t="s">
-        <v>47</v>
+        <v>8</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A83">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B83" t="s">
         <v>5</v>
@@ -2886,12 +2933,12 @@
         <v>43734</v>
       </c>
       <c r="E83" t="s">
-        <v>8</v>
+        <v>48</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A84">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B84" t="s">
         <v>5</v>
@@ -2899,13 +2946,10 @@
       <c r="C84" s="1">
         <v>43734</v>
       </c>
-      <c r="E84" t="s">
-        <v>48</v>
-      </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A85">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B85" t="s">
         <v>5</v>
@@ -2916,7 +2960,7 @@
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A86">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B86" t="s">
         <v>5</v>
@@ -2924,44 +2968,110 @@
       <c r="C86" s="1">
         <v>43734</v>
       </c>
+      <c r="D86" t="b">
+        <v>1</v>
+      </c>
+      <c r="E86" t="s">
+        <v>35</v>
+      </c>
+      <c r="F86" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A87">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B87" t="s">
         <v>5</v>
       </c>
       <c r="C87" s="1">
-        <v>43734</v>
-      </c>
-      <c r="D87" t="b">
-        <v>1</v>
-      </c>
-      <c r="E87" t="s">
-        <v>35</v>
-      </c>
-      <c r="F87" t="s">
-        <v>49</v>
+        <v>43735</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A88">
+        <v>127</v>
+      </c>
+      <c r="B88" t="s">
+        <v>5</v>
+      </c>
+      <c r="C88" s="1">
+        <v>43735</v>
+      </c>
+      <c r="E88" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A89">
+        <v>44</v>
+      </c>
+      <c r="B89" t="s">
+        <v>5</v>
+      </c>
+      <c r="C89" s="1">
+        <v>43735</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A90">
+        <v>131</v>
+      </c>
+      <c r="B90" t="s">
+        <v>5</v>
+      </c>
+      <c r="C90" s="1">
+        <v>43735</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A91">
+        <v>132</v>
+      </c>
+      <c r="B91" t="s">
+        <v>5</v>
+      </c>
+      <c r="C91" s="1">
+        <v>43735</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A92">
+        <v>133</v>
+      </c>
+      <c r="B92" t="s">
+        <v>5</v>
+      </c>
+      <c r="C92" s="1">
+        <v>43735</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F74" xr:uid="{7ACCF93B-ECB5-4549-90E8-0D5590BFF3B1}">
-    <sortState ref="A2:F74">
-      <sortCondition ref="C1:C74"/>
+  <autoFilter ref="A1:F73" xr:uid="{7ACCF93B-ECB5-4549-90E8-0D5590BFF3B1}">
+    <sortState ref="A2:F73">
+      <sortCondition ref="C1:C73"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
+  <conditionalFormatting sqref="B93:B1048576 B1:B90">
+    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
+      <formula>"WA"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
       <formula>"AC"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B91:B92">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
       <formula>"WA"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+      <formula>"AC"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations disablePrompts="1" count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:B74" xr:uid="{4831945C-B34C-4191-9D68-06B7CAA2EBFD}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:B73" xr:uid="{4831945C-B34C-4191-9D68-06B7CAA2EBFD}">
       <formula1>"AC, WA, TLE, Not Answered"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2974,9 +3084,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40C233B7-3D4E-4872-A3EB-9A4A81938CC3}">
   <dimension ref="A1:G145"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I10" sqref="I10"/>
+      <selection pane="bottomLeft" activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -3077,10 +3187,44 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="D6" s="1"/>
+      <c r="A6">
+        <v>127</v>
+      </c>
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="1">
+        <v>43735</v>
+      </c>
+      <c r="F6" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="D7" s="1"/>
+      <c r="A7">
+        <v>140</v>
+      </c>
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="1">
+        <v>43735</v>
+      </c>
+      <c r="E7" t="b">
+        <v>1</v>
+      </c>
+      <c r="F7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G7" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="D8" s="1"/>
@@ -3512,7 +3656,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:D1048576" xr:uid="{73954FCB-6CAE-4348-A109-7122C619CB33}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C1048576" xr:uid="{73954FCB-6CAE-4348-A109-7122C619CB33}">
       <formula1>"AC, WA, TLE, Not Answered"</formula1>
     </dataValidation>
   </dataValidations>

--- a/AtCoder_record.xlsx
+++ b/AtCoder_record.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simon\codes\AtCoder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A115FD79-D4E5-43E9-9490-AD1E6CA08D49}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61FE941F-560D-4D57-A94F-4A48E64A3223}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10890" yWindow="5700" windowWidth="12255" windowHeight="11940" activeTab="3" xr2:uid="{9B9A1409-A6B9-4D33-8F83-A064BA4B158C}"/>
+    <workbookView xWindow="10710" yWindow="7125" windowWidth="12255" windowHeight="11940" activeTab="3" xr2:uid="{9B9A1409-A6B9-4D33-8F83-A064BA4B158C}"/>
   </bookViews>
   <sheets>
     <sheet name="TODO" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="53">
   <si>
     <t>contest</t>
     <phoneticPr fontId="1"/>
@@ -3086,7 +3086,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F8" sqref="F8"/>
+      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -3227,7 +3227,18 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="D8" s="1"/>
+      <c r="A8">
+        <v>136</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="1">
+        <v>43736</v>
+      </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.4">
       <c r="D9" s="1"/>

--- a/AtCoder_record.xlsx
+++ b/AtCoder_record.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simon\codes\AtCoder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61FE941F-560D-4D57-A94F-4A48E64A3223}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4714FCC4-CDC1-4C2E-9E55-619EF1BB2F61}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10710" yWindow="7125" windowWidth="12255" windowHeight="11940" activeTab="3" xr2:uid="{9B9A1409-A6B9-4D33-8F83-A064BA4B158C}"/>
+    <workbookView xWindow="9120" yWindow="8115" windowWidth="12255" windowHeight="11940" activeTab="3" xr2:uid="{9B9A1409-A6B9-4D33-8F83-A064BA4B158C}"/>
   </bookViews>
   <sheets>
     <sheet name="TODO" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="55">
   <si>
     <t>contest</t>
     <phoneticPr fontId="1"/>
@@ -479,6 +479,20 @@
     </rPh>
     <rPh sb="33" eb="34">
       <t>ハヤ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Bellman-Ford</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ループ検出の亜種</t>
+    <rPh sb="3" eb="5">
+      <t>ケンシュツ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>アシュ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -3086,7 +3100,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
+      <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -3241,10 +3255,38 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="D9" s="1"/>
+      <c r="A9">
+        <v>137</v>
+      </c>
+      <c r="B9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="1">
+        <v>43736</v>
+      </c>
+      <c r="F9" t="s">
+        <v>53</v>
+      </c>
+      <c r="G9" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="D10" s="1"/>
+      <c r="A10">
+        <v>134</v>
+      </c>
+      <c r="B10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="1">
+        <v>43736</v>
+      </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.4">
       <c r="D11" s="1"/>

--- a/AtCoder_record.xlsx
+++ b/AtCoder_record.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simon\codes\AtCoder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4714FCC4-CDC1-4C2E-9E55-619EF1BB2F61}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2684FA3-FBE6-4ABF-96CE-DC1CA8A73110}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9120" yWindow="8115" windowWidth="12255" windowHeight="11940" activeTab="3" xr2:uid="{9B9A1409-A6B9-4D33-8F83-A064BA4B158C}"/>
+    <workbookView xWindow="9120" yWindow="8115" windowWidth="12255" windowHeight="11940" xr2:uid="{9B9A1409-A6B9-4D33-8F83-A064BA4B158C}"/>
   </bookViews>
   <sheets>
     <sheet name="TODO" sheetId="2" r:id="rId1"/>
@@ -21,7 +21,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'ABC-C'!$A$1:$F$3</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'ABC-D'!$A$1:$F$73</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'ABC-E, F'!$A$1:$G$145</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'ABC-E, F'!$A$1:$G$144</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="57">
   <si>
     <t>contest</t>
     <phoneticPr fontId="1"/>
@@ -145,10 +145,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>WA</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>尺取りは広義単調増加でやるべし、じゃないとO(n^2)になる</t>
     <rPh sb="0" eb="1">
       <t>シャク</t>
@@ -493,6 +489,27 @@
     </rPh>
     <rPh sb="6" eb="8">
       <t>アシュ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>偏角ソート</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンカク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>atan2(y, x)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>dfs 閉路検出</t>
+    <rPh sb="4" eb="6">
+      <t>ヘイロ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ケンシュツ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -920,15 +937,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{602BCC14-ABD2-46B0-A7E7-BF34DB839E1B}">
   <dimension ref="A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="A6:B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="2" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -953,22 +970,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" t="s">
         <v>32</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>33</v>
       </c>
-      <c r="C1" t="s">
-        <v>34</v>
-      </c>
       <c r="D1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1" t="s">
         <v>36</v>
-      </c>
-      <c r="F1" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.4">
@@ -1548,7 +1565,7 @@
         <v>1</v>
       </c>
       <c r="E51" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.4">
@@ -1777,7 +1794,7 @@
         <v>43731</v>
       </c>
       <c r="E71" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.4">
@@ -1791,7 +1808,7 @@
         <v>43731</v>
       </c>
       <c r="E72" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.4">
@@ -1847,7 +1864,7 @@
         <v>1</v>
       </c>
       <c r="E76" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -1879,7 +1896,7 @@
   <dimension ref="A1:F92"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A83" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A75" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A93" sqref="A93"/>
     </sheetView>
   </sheetViews>
@@ -1892,19 +1909,19 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" t="s">
         <v>32</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>33</v>
       </c>
-      <c r="C1" t="s">
-        <v>34</v>
-      </c>
       <c r="D1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F1" t="s">
         <v>4</v>
@@ -2132,7 +2149,7 @@
         <v>1</v>
       </c>
       <c r="F19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.4">
@@ -2182,7 +2199,7 @@
         <v>1</v>
       </c>
       <c r="F23" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.4">
@@ -2279,7 +2296,7 @@
         <v>1</v>
       </c>
       <c r="F31" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.4">
@@ -2348,7 +2365,7 @@
         <v>43719</v>
       </c>
       <c r="F37" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.4">
@@ -2481,7 +2498,7 @@
         <v>1</v>
       </c>
       <c r="F48" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.4">
@@ -2534,7 +2551,7 @@
         <v>1</v>
       </c>
       <c r="F52" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.4">
@@ -2653,7 +2670,7 @@
         <v>43728</v>
       </c>
       <c r="F62" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.4">
@@ -2728,7 +2745,7 @@
         <v>1</v>
       </c>
       <c r="F68" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.4">
@@ -2745,7 +2762,7 @@
         <v>1</v>
       </c>
       <c r="F69" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.4">
@@ -2770,7 +2787,7 @@
         <v>43731</v>
       </c>
       <c r="E71" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.4">
@@ -2784,7 +2801,7 @@
         <v>43731</v>
       </c>
       <c r="E72" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.4">
@@ -2801,7 +2818,7 @@
         <v>1</v>
       </c>
       <c r="E73" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.4">
@@ -2829,7 +2846,7 @@
         <v>1</v>
       </c>
       <c r="E75" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.4">
@@ -2843,7 +2860,7 @@
         <v>43732</v>
       </c>
       <c r="E76" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.4">
@@ -2857,7 +2874,7 @@
         <v>43733</v>
       </c>
       <c r="E77" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.4">
@@ -2871,7 +2888,7 @@
         <v>43733</v>
       </c>
       <c r="E78" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.4">
@@ -2888,7 +2905,7 @@
         <v>1</v>
       </c>
       <c r="E79" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.4">
@@ -2905,7 +2922,7 @@
         <v>1</v>
       </c>
       <c r="E80" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.4">
@@ -2919,7 +2936,7 @@
         <v>43734</v>
       </c>
       <c r="E81" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.4">
@@ -2947,7 +2964,7 @@
         <v>43734</v>
       </c>
       <c r="E83" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.4">
@@ -2986,10 +3003,10 @@
         <v>1</v>
       </c>
       <c r="E86" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F86" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.4">
@@ -3014,7 +3031,7 @@
         <v>43735</v>
       </c>
       <c r="E88" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.4">
@@ -3096,11 +3113,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40C233B7-3D4E-4872-A3EB-9A4A81938CC3}">
-  <dimension ref="A1:G145"/>
+  <dimension ref="A1:G144"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
+      <selection pane="bottomLeft" activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -3123,7 +3140,7 @@
         <v>6</v>
       </c>
       <c r="E1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F1" t="s">
         <v>3</v>
@@ -3134,21 +3151,27 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="D2" s="1">
-        <v>43716</v>
+        <v>43710</v>
+      </c>
+      <c r="E2" t="b">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="B3" t="s">
         <v>15</v>
@@ -3159,16 +3182,13 @@
       <c r="D3" s="1">
         <v>43710</v>
       </c>
-      <c r="E3" t="b">
-        <v>1</v>
-      </c>
       <c r="F3" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="B4" t="s">
         <v>15</v>
@@ -3177,15 +3197,15 @@
         <v>5</v>
       </c>
       <c r="D4" s="1">
-        <v>43710</v>
-      </c>
-      <c r="F4" t="s">
-        <v>9</v>
+        <v>43725</v>
+      </c>
+      <c r="E4" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A5">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="B5" t="s">
         <v>15</v>
@@ -3194,18 +3214,18 @@
         <v>5</v>
       </c>
       <c r="D5" s="1">
-        <v>43725</v>
-      </c>
-      <c r="E5" t="b">
-        <v>1</v>
+        <v>43735</v>
+      </c>
+      <c r="F5" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A6">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -3213,36 +3233,33 @@
       <c r="D6" s="1">
         <v>43735</v>
       </c>
+      <c r="E6" t="b">
+        <v>1</v>
+      </c>
       <c r="F6" t="s">
-        <v>50</v>
+        <v>47</v>
+      </c>
+      <c r="G6" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A7">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
       </c>
       <c r="D7" s="1">
-        <v>43735</v>
-      </c>
-      <c r="E7" t="b">
-        <v>1</v>
-      </c>
-      <c r="F7" t="s">
-        <v>48</v>
-      </c>
-      <c r="G7" t="s">
-        <v>52</v>
+        <v>43736</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A8">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B8" t="s">
         <v>15</v>
@@ -3253,10 +3270,16 @@
       <c r="D8" s="1">
         <v>43736</v>
       </c>
+      <c r="F8" t="s">
+        <v>52</v>
+      </c>
+      <c r="G8" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A9">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B9" t="s">
         <v>15</v>
@@ -3267,19 +3290,13 @@
       <c r="D9" s="1">
         <v>43736</v>
       </c>
-      <c r="F9" t="s">
-        <v>53</v>
-      </c>
-      <c r="G9" t="s">
-        <v>54</v>
-      </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A10">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C10" t="s">
         <v>5</v>
@@ -3287,12 +3304,46 @@
       <c r="D10" s="1">
         <v>43736</v>
       </c>
+      <c r="F10" t="s">
+        <v>54</v>
+      </c>
+      <c r="G10" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="D11" s="1"/>
+      <c r="A11">
+        <v>142</v>
+      </c>
+      <c r="B11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="1">
+        <v>43736</v>
+      </c>
+      <c r="F11" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="D12" s="1"/>
+      <c r="A12">
+        <v>142</v>
+      </c>
+      <c r="B12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="1">
+        <v>43736</v>
+      </c>
+      <c r="F12" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.4">
       <c r="D13" s="1"/>
@@ -3690,13 +3741,10 @@
     <row r="144" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D144" s="1"/>
     </row>
-    <row r="145" spans="4:4" x14ac:dyDescent="0.4">
-      <c r="D145" s="1"/>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:G145" xr:uid="{B044DDE4-FD9B-4332-A4FA-1E362B47FB20}">
-    <sortState ref="A2:G145">
-      <sortCondition descending="1" ref="B1:B145"/>
+  <autoFilter ref="A1:G144" xr:uid="{B044DDE4-FD9B-4332-A4FA-1E362B47FB20}">
+    <sortState ref="A2:G144">
+      <sortCondition descending="1" ref="B1:B144"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="1"/>

--- a/AtCoder_record.xlsx
+++ b/AtCoder_record.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simon\codes\AtCoder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2684FA3-FBE6-4ABF-96CE-DC1CA8A73110}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC28E26C-CA30-4A60-9021-4D84C42CA7F4}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9120" yWindow="8115" windowWidth="12255" windowHeight="11940" xr2:uid="{9B9A1409-A6B9-4D33-8F83-A064BA4B158C}"/>
+    <workbookView xWindow="9120" yWindow="8115" windowWidth="12255" windowHeight="11940" activeTab="3" xr2:uid="{9B9A1409-A6B9-4D33-8F83-A064BA4B158C}"/>
   </bookViews>
   <sheets>
     <sheet name="TODO" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="59">
   <si>
     <t>contest</t>
     <phoneticPr fontId="1"/>
@@ -510,6 +510,20 @@
     </rPh>
     <rPh sb="6" eb="8">
       <t>ケンシュツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Dijkstra</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>dp 累積和</t>
+    <rPh sb="3" eb="5">
+      <t>ルイセキ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ワ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -937,8 +951,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{602BCC14-ABD2-46B0-A7E7-BF34DB839E1B}">
   <dimension ref="A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="A6:B7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -3115,9 +3129,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40C233B7-3D4E-4872-A3EB-9A4A81938CC3}">
   <dimension ref="A1:G144"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F12" sqref="F12"/>
+      <selection pane="bottomLeft" activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -3346,10 +3360,41 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="D13" s="1"/>
+      <c r="A13">
+        <v>132</v>
+      </c>
+      <c r="B13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="1">
+        <v>43737</v>
+      </c>
+      <c r="F13" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="D14" s="1"/>
+      <c r="A14">
+        <v>132</v>
+      </c>
+      <c r="B14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="1">
+        <v>43737</v>
+      </c>
+      <c r="E14" t="b">
+        <v>1</v>
+      </c>
+      <c r="F14" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.4">
       <c r="D15" s="1"/>

--- a/AtCoder_record.xlsx
+++ b/AtCoder_record.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simon\codes\AtCoder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC28E26C-CA30-4A60-9021-4D84C42CA7F4}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2663227B-DA85-45CA-B0F6-FA0DD1948CDA}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9120" yWindow="8115" windowWidth="12255" windowHeight="11940" activeTab="3" xr2:uid="{9B9A1409-A6B9-4D33-8F83-A064BA4B158C}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="60">
   <si>
     <t>contest</t>
     <phoneticPr fontId="1"/>
@@ -524,6 +524,22 @@
     </rPh>
     <rPh sb="5" eb="6">
       <t>ワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇文字目が絡むときのインデックスの扱いがややこしい</t>
+    <rPh sb="1" eb="3">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>カラ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>アツカ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -3131,7 +3147,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C15" sqref="C15"/>
+      <selection pane="bottomLeft" activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -3397,7 +3413,27 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="D15" s="1"/>
+      <c r="A15">
+        <v>138</v>
+      </c>
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" s="1">
+        <v>43737</v>
+      </c>
+      <c r="E15" t="b">
+        <v>1</v>
+      </c>
+      <c r="F15" t="s">
+        <v>37</v>
+      </c>
+      <c r="G15" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.4">
       <c r="D16" s="1"/>

--- a/AtCoder_record.xlsx
+++ b/AtCoder_record.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simon\codes\AtCoder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2663227B-DA85-45CA-B0F6-FA0DD1948CDA}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84F9C340-1C94-42A0-AFED-F281B1CF34A3}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9120" yWindow="8115" windowWidth="12255" windowHeight="11940" activeTab="3" xr2:uid="{9B9A1409-A6B9-4D33-8F83-A064BA4B158C}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="63">
   <si>
     <t>contest</t>
     <phoneticPr fontId="1"/>
@@ -519,13 +519,6 @@
   </si>
   <si>
     <t>dp 累積和</t>
-    <rPh sb="3" eb="5">
-      <t>ルイセキ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>ワ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>〇文字目が絡むときのインデックスの扱いがややこしい</t>
@@ -540,6 +533,36 @@
     </rPh>
     <rPh sb="17" eb="18">
       <t>アツカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>グラフ構築</t>
+    <rPh sb="3" eb="5">
+      <t>コウチク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>グリッドのグラフ化、UnionFindでx軸・y軸管理</t>
+    <rPh sb="8" eb="9">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ジク</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ジク</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>重要</t>
+    <rPh sb="0" eb="2">
+      <t>ジュウヨウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -3147,13 +3170,13 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F16" sqref="F16"/>
+      <selection pane="bottomLeft" activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="4" max="4" width="12.125" customWidth="1"/>
-    <col min="6" max="6" width="14.875" customWidth="1"/>
+    <col min="6" max="6" width="24.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.4">
@@ -3436,54 +3459,91 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="D16" s="1"/>
-    </row>
-    <row r="17" spans="4:4" x14ac:dyDescent="0.4">
-      <c r="D17" s="1"/>
-    </row>
-    <row r="18" spans="4:4" x14ac:dyDescent="0.4">
+      <c r="A16">
+        <v>131</v>
+      </c>
+      <c r="B16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" s="1">
+        <v>43738</v>
+      </c>
+      <c r="E16" t="b">
+        <v>1</v>
+      </c>
+      <c r="F16" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A17">
+        <v>131</v>
+      </c>
+      <c r="B17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" s="1">
+        <v>43738</v>
+      </c>
+      <c r="E17" t="b">
+        <v>1</v>
+      </c>
+      <c r="F17" t="s">
+        <v>61</v>
+      </c>
+      <c r="G17" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
       <c r="D18" s="1"/>
     </row>
-    <row r="19" spans="4:4" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
       <c r="D19" s="1"/>
     </row>
-    <row r="20" spans="4:4" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
       <c r="D20" s="1"/>
     </row>
-    <row r="21" spans="4:4" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
       <c r="D21" s="1"/>
     </row>
-    <row r="22" spans="4:4" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.4">
       <c r="D22" s="1"/>
     </row>
-    <row r="23" spans="4:4" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.4">
       <c r="D23" s="1"/>
     </row>
-    <row r="24" spans="4:4" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.4">
       <c r="D24" s="1"/>
     </row>
-    <row r="25" spans="4:4" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.4">
       <c r="D25" s="1"/>
     </row>
-    <row r="26" spans="4:4" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.4">
       <c r="D26" s="1"/>
     </row>
-    <row r="27" spans="4:4" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.4">
       <c r="D27" s="1"/>
     </row>
-    <row r="28" spans="4:4" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.4">
       <c r="D28" s="1"/>
     </row>
-    <row r="29" spans="4:4" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.4">
       <c r="D29" s="1"/>
     </row>
-    <row r="30" spans="4:4" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.4">
       <c r="D30" s="1"/>
     </row>
-    <row r="31" spans="4:4" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.4">
       <c r="D31" s="1"/>
     </row>
-    <row r="32" spans="4:4" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.4">
       <c r="D32" s="1"/>
     </row>
     <row r="33" spans="4:4" x14ac:dyDescent="0.4">

--- a/AtCoder_record.xlsx
+++ b/AtCoder_record.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simon\codes\AtCoder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84F9C340-1C94-42A0-AFED-F281B1CF34A3}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{264FEED5-9A68-4E65-AC15-DA4596AD59EB}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9120" yWindow="8115" windowWidth="12255" windowHeight="11940" activeTab="3" xr2:uid="{9B9A1409-A6B9-4D33-8F83-A064BA4B158C}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="65">
   <si>
     <t>contest</t>
     <phoneticPr fontId="1"/>
@@ -563,6 +563,22 @@
     <t>重要</t>
     <rPh sb="0" eb="2">
       <t>ジュウヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AC</t>
+  </si>
+  <si>
+    <t>番兵、インデックス管理</t>
+    <rPh sb="0" eb="1">
+      <t>バン</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ヘイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>カンリ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -3170,7 +3186,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C15" sqref="C15"/>
+      <selection pane="bottomLeft" activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -3502,7 +3518,24 @@
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="D18" s="1"/>
+      <c r="A18">
+        <v>140</v>
+      </c>
+      <c r="B18" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" t="s">
+        <v>63</v>
+      </c>
+      <c r="D18" s="1">
+        <v>43738</v>
+      </c>
+      <c r="E18" t="b">
+        <v>1</v>
+      </c>
+      <c r="G18" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.4">
       <c r="D19" s="1"/>

--- a/AtCoder_record.xlsx
+++ b/AtCoder_record.xlsx
@@ -8,15 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simon\codes\AtCoder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{264FEED5-9A68-4E65-AC15-DA4596AD59EB}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40C48AFA-B697-4E24-AC61-22630F5838B3}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9120" yWindow="8115" windowWidth="12255" windowHeight="11940" activeTab="3" xr2:uid="{9B9A1409-A6B9-4D33-8F83-A064BA4B158C}"/>
+    <workbookView xWindow="9120" yWindow="8115" windowWidth="15555" windowHeight="11940" firstSheet="1" activeTab="2" xr2:uid="{9B9A1409-A6B9-4D33-8F83-A064BA4B158C}"/>
   </bookViews>
   <sheets>
     <sheet name="TODO" sheetId="2" r:id="rId1"/>
     <sheet name="ABC-C" sheetId="3" r:id="rId2"/>
     <sheet name="ABC-D" sheetId="4" r:id="rId3"/>
     <sheet name="ABC-E, F" sheetId="1" r:id="rId4"/>
+    <sheet name="Edu" sheetId="5" r:id="rId5"/>
+    <sheet name="DP" sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'ABC-C'!$A$1:$F$3</definedName>
@@ -38,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="74">
   <si>
     <t>contest</t>
     <phoneticPr fontId="1"/>
@@ -579,6 +581,63 @@
     </rPh>
     <rPh sb="9" eb="11">
       <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レベル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>基本</t>
+    <rPh sb="0" eb="2">
+      <t>キホン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>工夫</t>
+    <rPh sb="0" eb="2">
+      <t>クフウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>分類</t>
+    <rPh sb="0" eb="2">
+      <t>ブンルイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>標準</t>
+    <rPh sb="0" eb="2">
+      <t>ヒョウジュン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ABC032 D</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ABC099 C</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ナップサック</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>二分全探索</t>
+    <rPh sb="0" eb="2">
+      <t>ニブン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ゼン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>タンサク</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -587,7 +646,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -598,6 +657,15 @@
     </font>
     <font>
       <sz val="6"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="游ゴシック"/>
       <family val="2"/>
       <charset val="128"/>
@@ -621,20 +689,27 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="8">
@@ -1962,11 +2037,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DD4F28B-BDE7-4DDA-A1A4-081797C8432F}">
-  <dimension ref="A1:F92"/>
+  <dimension ref="A1:F95"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A75" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A93" sqref="A93"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A78" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D94" sqref="D94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -3145,6 +3220,48 @@
       </c>
       <c r="C92" s="1">
         <v>43735</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A93">
+        <v>30</v>
+      </c>
+      <c r="B93" t="s">
+        <v>5</v>
+      </c>
+      <c r="C93" s="1">
+        <v>43740</v>
+      </c>
+      <c r="D93" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A94">
+        <v>31</v>
+      </c>
+      <c r="B94" t="s">
+        <v>5</v>
+      </c>
+      <c r="C94" s="1">
+        <v>43739</v>
+      </c>
+      <c r="E94" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A95">
+        <v>32</v>
+      </c>
+      <c r="B95" t="s">
+        <v>5</v>
+      </c>
+      <c r="C95" s="1">
+        <v>43739</v>
+      </c>
+      <c r="E95" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -3184,9 +3301,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40C233B7-3D4E-4872-A3EB-9A4A81938CC3}">
   <dimension ref="A1:G144"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F18" sqref="F18"/>
+      <selection pane="bottomLeft" activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -3538,10 +3655,38 @@
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="D19" s="1"/>
+      <c r="A19">
+        <v>133</v>
+      </c>
+      <c r="B19" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" s="1">
+        <v>43738</v>
+      </c>
+      <c r="F19" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="D20" s="1"/>
+      <c r="A20">
+        <v>127</v>
+      </c>
+      <c r="B20" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" s="1">
+        <v>43738</v>
+      </c>
+      <c r="E20" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.4">
       <c r="D21" s="1"/>
@@ -3938,4 +4083,82 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86F77922-236A-4403-91B0-13B5362B7C18}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB5D3A0D-E494-497B-B47F-F6AF45D38A76}">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="11.125" customWidth="1"/>
+    <col min="2" max="2" width="12.75" customWidth="1"/>
+    <col min="3" max="3" width="20.75" customWidth="1"/>
+    <col min="4" max="4" width="24.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A2" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A3" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" display="ABC99 C" xr:uid="{6658A1F8-B66C-47AD-A86D-7D329B9DEFE2}"/>
+    <hyperlink ref="A3" r:id="rId2" xr:uid="{14DEBBE2-3D87-4C3B-B297-A19554918AAD}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+</worksheet>
 </file>
--- a/AtCoder_record.xlsx
+++ b/AtCoder_record.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simon\codes\AtCoder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40C48AFA-B697-4E24-AC61-22630F5838B3}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E1F8069-FE0E-47DA-8EA7-CEF54FDFADD2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9120" yWindow="8115" windowWidth="15555" windowHeight="11940" firstSheet="1" activeTab="2" xr2:uid="{9B9A1409-A6B9-4D33-8F83-A064BA4B158C}"/>
+    <workbookView xWindow="3600" yWindow="4920" windowWidth="15555" windowHeight="11940" firstSheet="1" activeTab="5" xr2:uid="{9B9A1409-A6B9-4D33-8F83-A064BA4B158C}"/>
   </bookViews>
   <sheets>
     <sheet name="TODO" sheetId="2" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="75">
   <si>
     <t>contest</t>
     <phoneticPr fontId="1"/>
@@ -639,6 +639,10 @@
     <rPh sb="3" eb="5">
       <t>タンサク</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ABC015 D</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2037,11 +2041,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DD4F28B-BDE7-4DDA-A1A4-081797C8432F}">
-  <dimension ref="A1:F95"/>
+  <dimension ref="A1:F99"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A78" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D94" sqref="D94"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A87" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E93" sqref="E93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -3261,6 +3265,53 @@
         <v>43739</v>
       </c>
       <c r="E95" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A96">
+        <v>29</v>
+      </c>
+      <c r="B96" t="s">
+        <v>5</v>
+      </c>
+      <c r="C96" s="1">
+        <v>43746</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A97">
+        <v>28</v>
+      </c>
+      <c r="B97" t="s">
+        <v>5</v>
+      </c>
+      <c r="C97" s="1">
+        <v>43746</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A98">
+        <v>27</v>
+      </c>
+      <c r="B98" t="s">
+        <v>5</v>
+      </c>
+      <c r="C98" s="1">
+        <v>43746</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A99">
+        <v>15</v>
+      </c>
+      <c r="B99" t="s">
+        <v>5</v>
+      </c>
+      <c r="C99" s="1">
+        <v>43746</v>
+      </c>
+      <c r="E99" t="s">
         <v>7</v>
       </c>
     </row>
@@ -4102,10 +4153,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB5D3A0D-E494-497B-B47F-F6AF45D38A76}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -4152,13 +4203,25 @@
         <v>73</v>
       </c>
     </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A4" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C4" t="s">
+        <v>72</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" display="ABC99 C" xr:uid="{6658A1F8-B66C-47AD-A86D-7D329B9DEFE2}"/>
     <hyperlink ref="A3" r:id="rId2" xr:uid="{14DEBBE2-3D87-4C3B-B297-A19554918AAD}"/>
+    <hyperlink ref="A4" r:id="rId3" xr:uid="{25182F8B-3520-4921-9C78-2396595DD4F0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>